--- a/portfolio_data_analytique.xlsx
+++ b/portfolio_data_analytique.xlsx
@@ -464,1702 +464,1702 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.813640949435428</v>
+        <v>-22.58697270988361</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.970326458743187</v>
+        <v>5.209063380836141</v>
       </c>
       <c r="C2" t="n">
-        <v>2.149226900521936</v>
+        <v>10.2497650629194</v>
       </c>
       <c r="D2" t="n">
-        <v>1.162655979036249</v>
+        <v>9.536040781814723</v>
       </c>
       <c r="E2" t="n">
-        <v>1.472084528620428</v>
+        <v>-1.407896515686662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.861274807828663</v>
+        <v>-2.521130115676921</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.890750090705937</v>
+        <v>1.153111587868303</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.24631704628679</v>
+        <v>1.680138013054995</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3730752481366779</v>
+        <v>1.781431960973604</v>
       </c>
       <c r="E3" t="n">
-        <v>7.648867577300739</v>
+        <v>-1.093551446219982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.748798193246521</v>
+        <v>2.78016119233348</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.689885191159814</v>
+        <v>0.6980760564813197</v>
       </c>
       <c r="C4" t="n">
-        <v>2.688553490234556</v>
+        <v>-1.137004709794223</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3269951713831833</v>
+        <v>0.1425641156113218</v>
       </c>
       <c r="E4" t="n">
-        <v>1.423134722788595</v>
+        <v>-1.483796654631898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4992811694450892</v>
+        <v>0.5903462284067846</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.381817663611992</v>
+        <v>-0.4552527994524269</v>
       </c>
       <c r="C5" t="n">
-        <v>6.39263092544217</v>
+        <v>1.794334546782658</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.168497579951129</v>
+        <v>0.3921035329115843</v>
       </c>
       <c r="E5" t="n">
-        <v>3.656965487566036</v>
+        <v>-1.321531508648599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.881089489340507</v>
+        <v>-1.7059402398267</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8279445204571777</v>
+        <v>0.7760171164600239</v>
       </c>
       <c r="C6" t="n">
-        <v>1.8375374753386</v>
+        <v>2.735002391843586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9104773094506473</v>
+        <v>0.592344748821483</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3051301840940857</v>
+        <v>-1.397424017298394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.557202490457564</v>
+        <v>-5.079239840077132</v>
       </c>
       <c r="B7" t="n">
-        <v>6.189512779055415</v>
+        <v>-8.327857507723911</v>
       </c>
       <c r="C7" t="n">
-        <v>5.154376435731149</v>
+        <v>7.314865395837532</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.00831094275097</v>
+        <v>3.362060725551612</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.77837578157803</v>
+        <v>3.730171226411897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.014534430764878</v>
+        <v>27.3888968921147</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0219579318708303</v>
+        <v>-6.967720126106618</v>
       </c>
       <c r="C8" t="n">
-        <v>4.937830988549747</v>
+        <v>-24.14133868259541</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6497406416069657</v>
+        <v>9.615803610467896</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.295513848048731</v>
+        <v>-4.895641693880582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.831939848262699</v>
+        <v>-8.347076572074199</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2260023372737169</v>
+        <v>2.627395889874093</v>
       </c>
       <c r="C9" t="n">
-        <v>2.331723879756407</v>
+        <v>13.48761215396626</v>
       </c>
       <c r="D9" t="n">
-        <v>1.652888009084329</v>
+        <v>-5.49090124402736</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.378674377851754</v>
+        <v>-1.277030227738792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.269489967390435</v>
+        <v>-11.83730264107372</v>
       </c>
       <c r="B10" t="n">
-        <v>7.989782761229317</v>
+        <v>9.547234669208132</v>
       </c>
       <c r="C10" t="n">
-        <v>10.8077945273203</v>
+        <v>17.56268852849127</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.118428648915277</v>
+        <v>-7.187641386786463</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.409658672243903</v>
+        <v>-7.084979169839216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17.91052853578635</v>
+        <v>-2.626695610891769</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.495728837019624</v>
+        <v>2.321532026611532</v>
       </c>
       <c r="C11" t="n">
-        <v>-27.77531717855787</v>
+        <v>5.734884854365703</v>
       </c>
       <c r="D11" t="n">
-        <v>7.709890152517959</v>
+        <v>-1.410995675961006</v>
       </c>
       <c r="E11" t="n">
-        <v>4.65062732727319</v>
+        <v>-3.018725594124462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1909553905135423</v>
+        <v>-2.642979998415646</v>
       </c>
       <c r="B12" t="n">
-        <v>1.397876174166979</v>
+        <v>4.417518942389163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8401739060161243</v>
+        <v>5.980522134626548</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.384508277571729</v>
+        <v>-2.067399877844577</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04449719312491363</v>
+        <v>-4.687661200755487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.573909076837658</v>
+        <v>-1.401067695918427</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9150496027946589</v>
+        <v>0.9688460704878542</v>
       </c>
       <c r="C13" t="n">
-        <v>1.779849498116917</v>
+        <v>1.856927884991086</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6043563557179065</v>
+        <v>-0.3970710220095263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.483366331643986</v>
+        <v>-0.02763523755098806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-11.0305750515113</v>
+        <v>-0.5515766959934183</v>
       </c>
       <c r="B14" t="n">
-        <v>22.54490150990141</v>
+        <v>0.2968129516232848</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.95960887720659</v>
+        <v>0.6075785609610848</v>
       </c>
       <c r="D14" t="n">
-        <v>15.36947188530423</v>
+        <v>-0.4252405673864041</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.92418946648775</v>
+        <v>1.072425750795455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.843313276999085</v>
+        <v>-0.822568624552633</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.337122166586171</v>
+        <v>-1.284279011598891</v>
       </c>
       <c r="C15" t="n">
-        <v>-11.63226098666176</v>
+        <v>0.7118427339472687</v>
       </c>
       <c r="D15" t="n">
-        <v>19.78264212846895</v>
+        <v>0.6879038324652254</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.656572252220113</v>
+        <v>1.707101069739027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.776989268966434</v>
+        <v>-0.591033700155109</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.283759153743419</v>
+        <v>-0.1456558558705364</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7846059738481512</v>
+        <v>1.38859408733329</v>
       </c>
       <c r="D16" t="n">
-        <v>3.940723554077918</v>
+        <v>-0.02267011993912998</v>
       </c>
       <c r="E16" t="n">
-        <v>4.335418894783779</v>
+        <v>0.3707655886314856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.619896250742758</v>
+        <v>-3.77856700741676</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.369850986645379</v>
+        <v>1.185455600762033</v>
       </c>
       <c r="C17" t="n">
-        <v>5.898600163729451</v>
+        <v>4.161039129033297</v>
       </c>
       <c r="D17" t="n">
-        <v>1.213820992633627</v>
+        <v>1.058203975056236</v>
       </c>
       <c r="E17" t="n">
-        <v>1.877326081025056</v>
+        <v>-1.626131697434806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.862432282151484</v>
+        <v>-3.251111087490756</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7305195907374388</v>
+        <v>3.244495452519913</v>
       </c>
       <c r="C18" t="n">
-        <v>2.787057608223915</v>
+        <v>5.398965783138886</v>
       </c>
       <c r="D18" t="n">
-        <v>1.014339061110352</v>
+        <v>-3.702910389819208</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.669483977920223</v>
+        <v>-0.6894397583488334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.76493446753507</v>
+        <v>-19.02978861107338</v>
       </c>
       <c r="B19" t="n">
-        <v>-16.95968286704592</v>
+        <v>-6.952366932594153</v>
       </c>
       <c r="C19" t="n">
-        <v>30.27762007702656</v>
+        <v>21.79703780275226</v>
       </c>
       <c r="D19" t="n">
-        <v>2.463123006084506</v>
+        <v>-6.474077522180357</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.54599468360019</v>
+        <v>11.65919526309563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.642218173399217</v>
+        <v>-0.2322881422047758</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.68972469940482</v>
+        <v>1.925110128493736</v>
       </c>
       <c r="C20" t="n">
-        <v>6.417828970118813</v>
+        <v>3.327592753463316</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1929277606563967</v>
+        <v>-0.2918318660059951</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1773946834568162</v>
+        <v>-3.728582873746282</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.73446178856285</v>
+        <v>-1.216640817596762</v>
       </c>
       <c r="B21" t="n">
-        <v>3.898849480246863</v>
+        <v>0.4728805795713463</v>
       </c>
       <c r="C21" t="n">
-        <v>-9.290782497281157</v>
+        <v>2.894400261790852</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.946375541411733</v>
+        <v>-0.4617905749187995</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.396153230116826</v>
+        <v>-0.688849448846638</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.395058875718151</v>
+        <v>-2.46080038921122</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.185642545441748</v>
+        <v>0.1916262376997069</v>
       </c>
       <c r="C22" t="n">
-        <v>2.730990416036599</v>
+        <v>4.864628315018623</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7143326754703214</v>
+        <v>-1.211113208992805</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1353783296529797</v>
+        <v>-0.3843409545143095</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1272399793651713</v>
+        <v>1.314182900666587</v>
       </c>
       <c r="B23" t="n">
-        <v>1.827514753438869</v>
+        <v>4.250010149378085</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8655145673516048</v>
+        <v>-3.910001272529485</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1342925584887993</v>
+        <v>2.64817842525497</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.700081899914102</v>
+        <v>-3.302370202770158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.1669951093208307</v>
+        <v>20.29884382356592</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9435559666204121</v>
+        <v>-0.5806427868864703</v>
       </c>
       <c r="C24" t="n">
-        <v>1.097118488787218</v>
+        <v>-13.7721343987861</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7271137655775194</v>
+        <v>-3.827219126578765</v>
       </c>
       <c r="E24" t="n">
-        <v>0.286318821576505</v>
+        <v>-1.11884751131458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.05194180584256789</v>
+        <v>-1.902085095486151</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2949075766268305</v>
+        <v>-2.141109364823188</v>
       </c>
       <c r="C25" t="n">
-        <v>1.666012941901746</v>
+        <v>2.675663104268133</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7789369740881248</v>
+        <v>1.195697456862202</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3558898029706449</v>
+        <v>1.171833899179004</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.9236214907489493</v>
+        <v>1.416866560299785</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5479427138834173</v>
+        <v>1.204985654687212</v>
       </c>
       <c r="C26" t="n">
-        <v>1.683025313297742</v>
+        <v>0.3268405857856226</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08528642823028444</v>
+        <v>0.190663495940726</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3926329646624924</v>
+        <v>-2.139356296713344</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-4.222973481345626</v>
+        <v>-12.8783627854591</v>
       </c>
       <c r="B27" t="n">
-        <v>6.465740116490415</v>
+        <v>2.940662345771032</v>
       </c>
       <c r="C27" t="n">
-        <v>14.92602050781426</v>
+        <v>0.6303231200143059</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.400940253490554</v>
+        <v>4.938536470256442</v>
       </c>
       <c r="E27" t="n">
-        <v>-9.767846889468494</v>
+        <v>5.368840849417317</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.7517540706997985</v>
+        <v>5.622543278251834</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1049664353641073</v>
+        <v>2.36271758873321</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7504958306797851</v>
+        <v>-7.487570914712856</v>
       </c>
       <c r="D28" t="n">
-        <v>1.578754125212749</v>
+        <v>-0.8532289230152338</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4725294498286297</v>
+        <v>1.355538970743046</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-2.80503608570823</v>
+        <v>-1.330385929971621</v>
       </c>
       <c r="B29" t="n">
-        <v>1.525202036943944</v>
+        <v>-0.4892064923157528</v>
       </c>
       <c r="C29" t="n">
-        <v>4.577761959825219</v>
+        <v>1.194676215757198</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.170592001358072</v>
+        <v>0.7387056021316157</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.12733590970286</v>
+        <v>0.8862106043985597</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-12.99763855905797</v>
+        <v>-1.60737540861612</v>
       </c>
       <c r="B30" t="n">
-        <v>1.4158630422911</v>
+        <v>2.687438508853082</v>
       </c>
       <c r="C30" t="n">
-        <v>14.99193299044303</v>
+        <v>5.716387116347732</v>
       </c>
       <c r="D30" t="n">
-        <v>2.289968438990981</v>
+        <v>-4.388563687989746</v>
       </c>
       <c r="E30" t="n">
-        <v>-4.700125912667142</v>
+        <v>-1.407886528594944</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.132292872862118</v>
+        <v>-0.5210871005936868</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.512274968382772</v>
+        <v>-1.629231301548111</v>
       </c>
       <c r="C31" t="n">
-        <v>1.826033904821944</v>
+        <v>1.067138171623695</v>
       </c>
       <c r="D31" t="n">
-        <v>2.051119922725455</v>
+        <v>0.8475306724499253</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.2325859863025082</v>
+        <v>1.235649558068177</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-3.702256050085105</v>
+        <v>-5.414901443002873</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4322288550298463</v>
+        <v>2.467696200045985</v>
       </c>
       <c r="C32" t="n">
-        <v>5.058088306882675</v>
+        <v>7.753984259639989</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.341565609321265</v>
+        <v>-3.309975094763903</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5535044974938477</v>
+        <v>-0.4968039219191943</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-4.277538710564429</v>
+        <v>-2.092664039652711</v>
       </c>
       <c r="B33" t="n">
-        <v>6.91748671852489</v>
+        <v>-1.50639997091563</v>
       </c>
       <c r="C33" t="n">
-        <v>7.749732288771638</v>
+        <v>2.668196137402962</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.821005924499667</v>
+        <v>-0.01291330257010609</v>
       </c>
       <c r="E33" t="n">
-        <v>-6.568674372232435</v>
+        <v>1.943781175735482</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-3.919836811840238</v>
+        <v>-7.822890734441353</v>
       </c>
       <c r="B34" t="n">
-        <v>3.072848955921746</v>
+        <v>0.01744192919787049</v>
       </c>
       <c r="C34" t="n">
-        <v>3.270746289372782</v>
+        <v>9.027671842741915</v>
       </c>
       <c r="D34" t="n">
-        <v>2.29811699436697</v>
+        <v>1.425691767298781</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.72187542782126</v>
+        <v>-1.647914804797216</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.496610071239532</v>
+        <v>-1.294595044012993</v>
       </c>
       <c r="B35" t="n">
-        <v>5.561769376694187</v>
+        <v>1.10832087321225</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.176581465150236</v>
+        <v>3.541445439555701</v>
       </c>
       <c r="D35" t="n">
-        <v>7.787203265115078</v>
+        <v>-0.4210326134796497</v>
       </c>
       <c r="E35" t="n">
-        <v>-10.66900124789857</v>
+        <v>-1.934138655275312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.9367976827204041</v>
+        <v>-2.036679490647298</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.513037727117074</v>
+        <v>-0.4138055647097216</v>
       </c>
       <c r="C36" t="n">
-        <v>1.929455762961198</v>
+        <v>3.127470208022726</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1058983022899818</v>
+        <v>1.809895809248402</v>
       </c>
       <c r="E36" t="n">
-        <v>1.414481344586296</v>
+        <v>-1.486880961914109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-5.651962096401671</v>
+        <v>-0.000346910162822993</v>
       </c>
       <c r="B37" t="n">
-        <v>3.383939277395918</v>
+        <v>1.138016831041277</v>
       </c>
       <c r="C37" t="n">
-        <v>8.421662572151719</v>
+        <v>-0.0433518147211178</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.194291618220171</v>
+        <v>-0.4284129493145823</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.959348134925793</v>
+        <v>0.3340948431572474</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-2.020526921519046</v>
+        <v>-1.068607025973992</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.048096300993392</v>
+        <v>3.192799037475387</v>
       </c>
       <c r="C38" t="n">
-        <v>2.138134418408625</v>
+        <v>8.095777086591992</v>
       </c>
       <c r="D38" t="n">
-        <v>1.296510330346107</v>
+        <v>-1.161720156162932</v>
       </c>
       <c r="E38" t="n">
-        <v>0.633978473757707</v>
+        <v>-8.058248941930454</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.251903233655915</v>
+        <v>6.059753908526393</v>
       </c>
       <c r="B39" t="n">
-        <v>5.599281461336234</v>
+        <v>2.391361653556708</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.514946170071758</v>
+        <v>-6.896681058324674</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7762227397123085</v>
+        <v>1.905097943532535</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.112461264632699</v>
+        <v>-2.459532447290964</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-5.436759525772372</v>
+        <v>-1.565432220437508</v>
       </c>
       <c r="B40" t="n">
-        <v>1.549189407330656</v>
+        <v>3.710542296312493</v>
       </c>
       <c r="C40" t="n">
-        <v>2.99095334915186</v>
+        <v>3.179106526998612</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.513361958344908</v>
+        <v>-0.931243576334418</v>
       </c>
       <c r="E40" t="n">
-        <v>3.409978727634762</v>
+        <v>-3.392973026539178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.979598237078472</v>
+        <v>-3.566708046133729</v>
       </c>
       <c r="B41" t="n">
-        <v>2.647710559118043</v>
+        <v>1.064885406091767</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.86797956171905</v>
+        <v>1.479000276345384</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.5286725080615271</v>
+        <v>4.811665617773484</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.230656726415937</v>
+        <v>-2.788843254076907</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1.574702145212145</v>
+        <v>-2.366686752405385</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2632064943315391</v>
+        <v>-2.782421117229442</v>
       </c>
       <c r="C42" t="n">
-        <v>1.782793912493104</v>
+        <v>7.295820062673514</v>
       </c>
       <c r="D42" t="n">
-        <v>1.038552215954549</v>
+        <v>-0.8532885499033653</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01656251109603196</v>
+        <v>-0.2934236431353243</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-2.917738497229993</v>
+        <v>-4.634485457163396</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.1536116226790186</v>
+        <v>-1.857315941522607</v>
       </c>
       <c r="C43" t="n">
-        <v>6.752915387410676</v>
+        <v>4.874968116480706</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.943987301152059</v>
+        <v>0.05520956051374303</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.737577966349608</v>
+        <v>2.561623721691555</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12.56121023775131</v>
+        <v>-1.252309148813501</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5076307582912184</v>
+        <v>1.358834345253529</v>
       </c>
       <c r="C44" t="n">
-        <v>-21.14795255900648</v>
+        <v>1.812169778012894</v>
       </c>
       <c r="D44" t="n">
-        <v>19.27195843989708</v>
+        <v>-0.4372724305906021</v>
       </c>
       <c r="E44" t="n">
-        <v>-10.19284687693313</v>
+        <v>-0.4814225438623187</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-2.429504759295357</v>
+        <v>-2.917546322522884</v>
       </c>
       <c r="B45" t="n">
-        <v>1.873673079011773</v>
+        <v>-0.971160111819233</v>
       </c>
       <c r="C45" t="n">
-        <v>4.97616639539153</v>
+        <v>2.965379130039147</v>
       </c>
       <c r="D45" t="n">
-        <v>-2.312240637624292</v>
+        <v>1.558378055060121</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.108094077483654</v>
+        <v>0.3649492492428477</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.3988269318262205</v>
+        <v>-2.98451130728383</v>
       </c>
       <c r="B46" t="n">
-        <v>3.209419969997434</v>
+        <v>13.82273355641946</v>
       </c>
       <c r="C46" t="n">
-        <v>1.374514520362104</v>
+        <v>6.135562518580306</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.406769214076108</v>
+        <v>-9.248904564408919</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.778338344457208</v>
+        <v>-6.724880203307015</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.165994328310958</v>
+        <v>-2.863700872159639</v>
       </c>
       <c r="B47" t="n">
-        <v>2.560335615059189</v>
+        <v>-3.118745407971804</v>
       </c>
       <c r="C47" t="n">
-        <v>4.582766215284715</v>
+        <v>1.649737071044537</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.833100009420146</v>
+        <v>2.234609919887943</v>
       </c>
       <c r="E47" t="n">
-        <v>-5.475996149234712</v>
+        <v>3.098099289198962</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.4170175977596181</v>
+        <v>-2.132482284128103</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.173821549973665</v>
+        <v>-1.455442487824685</v>
       </c>
       <c r="C48" t="n">
-        <v>0.369882871802251</v>
+        <v>2.61904664100281</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1711707508082384</v>
+        <v>1.321604999831506</v>
       </c>
       <c r="E48" t="n">
-        <v>3.392127026739273</v>
+        <v>0.6472731311184717</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-1.35336909881046</v>
+        <v>0.478993532706964</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6140726408660111</v>
+        <v>-0.3535552498156721</v>
       </c>
       <c r="C49" t="n">
-        <v>1.582358324460737</v>
+        <v>0.759582272979976</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0677003839698357</v>
+        <v>0.854048852318042</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08923774951387642</v>
+        <v>-0.7390694081893094</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>12.45201201291125</v>
+        <v>-2.292763082464502</v>
       </c>
       <c r="B50" t="n">
-        <v>16.27464197623247</v>
+        <v>2.504442437613571</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.501594980134913</v>
+        <v>2.796850432520274</v>
       </c>
       <c r="D50" t="n">
-        <v>1.82868163280584</v>
+        <v>-0.1689515085052258</v>
       </c>
       <c r="E50" t="n">
-        <v>-27.05374064181464</v>
+        <v>-1.839578279164115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-10.82147808271576</v>
+        <v>2.719487597325439</v>
       </c>
       <c r="B51" t="n">
-        <v>3.640503682634765</v>
+        <v>-1.827105272818799</v>
       </c>
       <c r="C51" t="n">
-        <v>12.01008398554696</v>
+        <v>-4.996978518319129</v>
       </c>
       <c r="D51" t="n">
-        <v>-1.352153185627667</v>
+        <v>0.3099985220244086</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.476956399838301</v>
+        <v>4.794597671788079</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1.457059561655502</v>
+        <v>-0.1660055763040001</v>
       </c>
       <c r="B52" t="n">
-        <v>-6.880306947349733</v>
+        <v>0.9091116255160296</v>
       </c>
       <c r="C52" t="n">
-        <v>12.84455354090745</v>
+        <v>1.045497313249114</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.435158307683786</v>
+        <v>0.06088680866176506</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.07202872421843393</v>
+        <v>-0.8494901711229103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-8.457068434175675</v>
+        <v>-6.15744125036938</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.467529793395525</v>
+        <v>1.627272591285168</v>
       </c>
       <c r="C53" t="n">
-        <v>8.12926196532168</v>
+        <v>5.914564628068801</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.253502531082489</v>
+        <v>-1.259728611651423</v>
       </c>
       <c r="E53" t="n">
-        <v>4.04883879333201</v>
+        <v>0.8753326426668336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-4.99025843140925</v>
+        <v>-2.503676654274674</v>
       </c>
       <c r="B54" t="n">
-        <v>1.734867987769276</v>
+        <v>2.266615276765665</v>
       </c>
       <c r="C54" t="n">
-        <v>5.109928783566019</v>
+        <v>4.727565940695527</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.192303231472446</v>
+        <v>-1.078723931894503</v>
       </c>
       <c r="E54" t="n">
-        <v>1.337764891546398</v>
+        <v>-2.411780631292016</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.5268231482714</v>
+        <v>2.188332946353224</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5948011533649921</v>
+        <v>-2.074667273753112</v>
       </c>
       <c r="C55" t="n">
-        <v>3.621639653734535</v>
+        <v>1.931009541233154</v>
       </c>
       <c r="D55" t="n">
-        <v>0.418857151231902</v>
+        <v>-0.4384072428595108</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.108474810060028</v>
+        <v>-0.6062679709737566</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.5594744226914797</v>
+        <v>-2.995613085059893</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.3524002878804493</v>
+        <v>1.557413297011953</v>
       </c>
       <c r="C56" t="n">
-        <v>1.848384908253821</v>
+        <v>4.740998645124996</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8391033645522068</v>
+        <v>-0.3848788672957347</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7756135622340987</v>
+        <v>-1.917919989781322</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1441816646615817</v>
+        <v>-3.28922736278611</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2513104576286836</v>
+        <v>4.011589189725473</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9894938264462708</v>
+        <v>3.676351821722376</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7169794890568151</v>
+        <v>-1.284548456990037</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5993445225359864</v>
+        <v>-2.1141651916717</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.687584739437675</v>
+        <v>-5.517375223520321</v>
       </c>
       <c r="B58" t="n">
-        <v>3.887411781154483</v>
+        <v>0.8700765565044302</v>
       </c>
       <c r="C58" t="n">
-        <v>1.441692336826822</v>
+        <v>4.631611675079343</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.051108489716555</v>
+        <v>-3.089627556848595</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.59041088882708</v>
+        <v>4.105314548785146</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-3.814450309792477</v>
+        <v>-3.162623772206609</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09936430066950608</v>
+        <v>1.577443820484169</v>
       </c>
       <c r="C59" t="n">
-        <v>5.363769769737125</v>
+        <v>1.85789662471781</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6158199019901598</v>
+        <v>0.6556705724588495</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.264503662604312</v>
+        <v>0.07161275454578034</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1.781816103716515</v>
+        <v>-1.607579577554855</v>
       </c>
       <c r="B60" t="n">
-        <v>1.075946338048416</v>
+        <v>0.8213831621189879</v>
       </c>
       <c r="C60" t="n">
-        <v>2.02446828681556</v>
+        <v>2.414039025296471</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.7716847990089911</v>
+        <v>-0.1141248350606619</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4530862778615305</v>
+        <v>-0.5137177747999423</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.766989989705147</v>
+        <v>-5.715517086751521</v>
       </c>
       <c r="B61" t="n">
-        <v>-2.55259899072442</v>
+        <v>2.564623966431461</v>
       </c>
       <c r="C61" t="n">
-        <v>1.32777695159835</v>
+        <v>7.784407162873624</v>
       </c>
       <c r="D61" t="n">
-        <v>1.840978386624096</v>
+        <v>-1.463699625636396</v>
       </c>
       <c r="E61" t="n">
-        <v>2.150833642207121</v>
+        <v>-2.169814416917168</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.9921530602632969</v>
+        <v>-23.45854842487536</v>
       </c>
       <c r="B62" t="n">
-        <v>2.241567654756812</v>
+        <v>-113.9413063759628</v>
       </c>
       <c r="C62" t="n">
-        <v>3.132553271486884</v>
+        <v>-177.3226485427125</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.865420014812711</v>
+        <v>125.1396004308596</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.516547851167688</v>
+        <v>190.582902912691</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.6533425809598032</v>
+        <v>-0.3202494145734687</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.040598626998711</v>
+        <v>-0.5097007637494392</v>
       </c>
       <c r="C63" t="n">
-        <v>1.026203416830013</v>
+        <v>1.520356724246396</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07112822407412729</v>
+        <v>0.3155235482865029</v>
       </c>
       <c r="E63" t="n">
-        <v>1.596609567054378</v>
+        <v>-0.005930094209992407</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-3.905217349489764</v>
+        <v>-12.38468704044639</v>
       </c>
       <c r="B64" t="n">
-        <v>3.508175447310727</v>
+        <v>5.208080957527087</v>
       </c>
       <c r="C64" t="n">
-        <v>5.065110626329496</v>
+        <v>12.09202311940418</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.7267836930668838</v>
+        <v>-4.600582128747709</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.941285031083571</v>
+        <v>0.6851650922628335</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.174105010148071</v>
+        <v>-1.803551671339004</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9286941401072547</v>
+        <v>-1.005827697925327</v>
       </c>
       <c r="C65" t="n">
-        <v>2.415736904124666</v>
+        <v>3.188892179567119</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.4594839766960636</v>
+        <v>-0.2866117727953084</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7108420573877864</v>
+        <v>0.9070989624925232</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.075234936384626</v>
+        <v>-20.34759528434242</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3397697936321208</v>
+        <v>2.091276361523331</v>
       </c>
       <c r="C66" t="n">
-        <v>1.25624995391898</v>
+        <v>-8.906451307618385</v>
       </c>
       <c r="D66" t="n">
-        <v>1.3468961701277</v>
+        <v>14.21481492116404</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.1881413940299327</v>
+        <v>13.94795530927344</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.4735501515991759</v>
+        <v>0.3598939916652042</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1239050170840062</v>
+        <v>1.333883140535304</v>
       </c>
       <c r="C67" t="n">
-        <v>3.56620871771349</v>
+        <v>-0.5160601569327727</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2370712450027398</v>
+        <v>1.379528697539387</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.731682304027567</v>
+        <v>-1.557245672807123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2838583168042839</v>
+        <v>-2.729589570936644</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1488907289790827</v>
+        <v>2.090464788328625</v>
       </c>
       <c r="C68" t="n">
-        <v>1.36747480067483</v>
+        <v>3.255287588188845</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.2461404405359805</v>
+        <v>-0.6233661710368654</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5540834059222142</v>
+        <v>-0.9927966345439599</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.2880055409036026</v>
+        <v>-13.32518983873137</v>
       </c>
       <c r="B69" t="n">
-        <v>1.367834167254196</v>
+        <v>7.417105035127172</v>
       </c>
       <c r="C69" t="n">
-        <v>3.096329233586285</v>
+        <v>16.21531089992078</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2031344516371031</v>
+        <v>-0.4884190941884912</v>
       </c>
       <c r="E69" t="n">
-        <v>-3.379292311573982</v>
+        <v>-8.818807002128091</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-5.45508391815998</v>
+        <v>-0.6193697117501867</v>
       </c>
       <c r="B70" t="n">
-        <v>2.86073153270775</v>
+        <v>-0.4281931318325265</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.2942098399215082</v>
+        <v>1.598604231228077</v>
       </c>
       <c r="D70" t="n">
-        <v>3.526830282333948</v>
+        <v>0.3078547856098897</v>
       </c>
       <c r="E70" t="n">
-        <v>0.361731943039791</v>
+        <v>0.1411038267447482</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-7.354902244437987</v>
+        <v>5.481608408898804</v>
       </c>
       <c r="B71" t="n">
-        <v>48.01320933081865</v>
+        <v>0.102262239274675</v>
       </c>
       <c r="C71" t="n">
-        <v>25.78271717759774</v>
+        <v>-3.634880961795422</v>
       </c>
       <c r="D71" t="n">
-        <v>-24.19854596938223</v>
+        <v>-1.042070699032967</v>
       </c>
       <c r="E71" t="n">
-        <v>-41.24247829459615</v>
+        <v>0.09308101265490998</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-3.721512928234945</v>
+        <v>-0.5599363117370471</v>
       </c>
       <c r="B72" t="n">
-        <v>2.649213108976634</v>
+        <v>1.515955130645918</v>
       </c>
       <c r="C72" t="n">
-        <v>3.662152635297468</v>
+        <v>1.591470475976554</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.4742649505419366</v>
+        <v>-0.5372335523892062</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.115587865497218</v>
+        <v>-1.010255742496219</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-3.552283691661108</v>
+        <v>-3.122288278899937</v>
       </c>
       <c r="B73" t="n">
-        <v>17.64587756057406</v>
+        <v>-2.812023683104735</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.428989639450602</v>
+        <v>3.633934254410648</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.42234447208397</v>
+        <v>1.258273460857733</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.242259757378381</v>
+        <v>2.042104246736288</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.365178136153948</v>
+        <v>-17.6519254892779</v>
       </c>
       <c r="B74" t="n">
-        <v>1.293961748898159</v>
+        <v>12.2660889528294</v>
       </c>
       <c r="C74" t="n">
-        <v>2.595354526223987</v>
+        <v>-3.28845977785759</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.8661019122893298</v>
+        <v>5.805630039741883</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.6580362266788676</v>
+        <v>3.868666274564212</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.7132522572748777</v>
+        <v>-8.249011395976288</v>
       </c>
       <c r="B75" t="n">
-        <v>2.259999664947992</v>
+        <v>-3.725997829338958</v>
       </c>
       <c r="C75" t="n">
-        <v>12.7663362300365</v>
+        <v>5.602791576389877</v>
       </c>
       <c r="D75" t="n">
-        <v>-4.914810525853999</v>
+        <v>2.073991280727677</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.398273111855621</v>
+        <v>5.298226368197694</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-3.307591057714613</v>
+        <v>-3.766488935561064</v>
       </c>
       <c r="B76" t="n">
-        <v>1.264705235996219</v>
+        <v>1.039390543568242</v>
       </c>
       <c r="C76" t="n">
-        <v>5.089011031614231</v>
+        <v>6.781561509874082</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.571182371060911</v>
+        <v>-3.171685135741296</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4749428388349229</v>
+        <v>0.117222017860033</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-14.45955455101573</v>
+        <v>-0.4263490803300961</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.04334631375188287</v>
+        <v>-2.296045759005901</v>
       </c>
       <c r="C77" t="n">
-        <v>13.56911106218268</v>
+        <v>2.26490212951773</v>
       </c>
       <c r="D77" t="n">
-        <v>5.187679850124757</v>
+        <v>0.9110398853829589</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.253890047539816</v>
+        <v>0.5464528244353078</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-2.657519558562842</v>
+        <v>-29.768395822492</v>
       </c>
       <c r="B78" t="n">
-        <v>4.445994478794703</v>
+        <v>1.142079278366671</v>
       </c>
       <c r="C78" t="n">
-        <v>3.702253916163583</v>
+        <v>31.58606647336278</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.3630396205507425</v>
+        <v>-1.125084406379079</v>
       </c>
       <c r="E78" t="n">
-        <v>-4.1276892158447</v>
+        <v>-0.834665522858375</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-4.025979926971373</v>
+        <v>-4.064530078677817</v>
       </c>
       <c r="B79" t="n">
-        <v>-6.543230208481047</v>
+        <v>-1.892527861207478</v>
       </c>
       <c r="C79" t="n">
-        <v>8.74254729269996</v>
+        <v>4.359595092554533</v>
       </c>
       <c r="D79" t="n">
-        <v>1.214217968435932</v>
+        <v>3.486789912185281</v>
       </c>
       <c r="E79" t="n">
-        <v>1.612444874316533</v>
+        <v>-0.8893270648545194</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.149034418962632</v>
+        <v>-9.234130348700974</v>
       </c>
       <c r="B80" t="n">
-        <v>2.248940662444123</v>
+        <v>17.67217957200984</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.291621634743957</v>
+        <v>18.22940490785437</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5732242860270087</v>
+        <v>-12.1938541406525</v>
       </c>
       <c r="E80" t="n">
-        <v>0.320422267310194</v>
+        <v>-13.47359999051075</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-3.098525012067888</v>
+        <v>5.909717256642944</v>
       </c>
       <c r="B81" t="n">
-        <v>2.931341477689715</v>
+        <v>-3.874732713194428</v>
       </c>
       <c r="C81" t="n">
-        <v>3.975863568742084</v>
+        <v>-13.0410774939034</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.6522949494201056</v>
+        <v>6.432807982532306</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.156385084943805</v>
+        <v>5.573284967922579</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.744372499252144</v>
+        <v>-5.119158825159529</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.18104337486034</v>
+        <v>3.910179806427079</v>
       </c>
       <c r="C82" t="n">
-        <v>7.076004195632964</v>
+        <v>10.38943368314095</v>
       </c>
       <c r="D82" t="n">
-        <v>-4.595208484544728</v>
+        <v>-3.625442558975751</v>
       </c>
       <c r="E82" t="n">
-        <v>-2.044124835480043</v>
+        <v>-4.555012105432745</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2839019981283824</v>
+        <v>4.524153830470231</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.667115676676808</v>
+        <v>-3.94691485563937</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.98862189019651</v>
+        <v>-7.563539137302728</v>
       </c>
       <c r="D83" t="n">
-        <v>7.08664214881446</v>
+        <v>4.608379070920956</v>
       </c>
       <c r="E83" t="n">
-        <v>13.28519341993047</v>
+        <v>3.37792109155091</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-9.91315599347673</v>
+        <v>-0.8396172085106373</v>
       </c>
       <c r="B84" t="n">
-        <v>5.482529816266307</v>
+        <v>0.9587528975997656</v>
       </c>
       <c r="C84" t="n">
-        <v>12.58914754341317</v>
+        <v>1.117163279845271</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9789551212709019</v>
+        <v>-0.05973626573706096</v>
       </c>
       <c r="E84" t="n">
-        <v>-8.13747648747365</v>
+        <v>-0.1765627031973376</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.5810391716551613</v>
+        <v>7.100267243835065</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3102987556376662</v>
+        <v>4.245538506897383</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8877740048238972</v>
+        <v>-5.725995065647539</v>
       </c>
       <c r="D85" t="n">
-        <v>1.096739438898461</v>
+        <v>0.3296284152643033</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.7137730277048634</v>
+        <v>-4.949439100349208</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.06668054097758158</v>
+        <v>2.079664308326176</v>
       </c>
       <c r="B86" t="n">
-        <v>2.639824044870359</v>
+        <v>8.605617301936825</v>
       </c>
       <c r="C86" t="n">
-        <v>2.004164537423589</v>
+        <v>3.318351316852221</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.789006745803975</v>
+        <v>-3.738512915363432</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.788301295512395</v>
+        <v>-9.265120011751787</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5039150093611353</v>
+        <v>-1.287920160419318</v>
       </c>
       <c r="B87" t="n">
-        <v>1.554340450692946</v>
+        <v>-0.3115555877063948</v>
       </c>
       <c r="C87" t="n">
-        <v>3.280737332911615</v>
+        <v>1.598343356679427</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.170811382017008</v>
+        <v>1.125356109185343</v>
       </c>
       <c r="E87" t="n">
-        <v>-2.168181410948685</v>
+        <v>-0.1242237177390567</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6.22094204932167</v>
+        <v>-2.019542044215771</v>
       </c>
       <c r="B88" t="n">
-        <v>3.7535367919423</v>
+        <v>3.733280333237595</v>
       </c>
       <c r="C88" t="n">
-        <v>-4.261040493418346</v>
+        <v>1.907499627353668</v>
       </c>
       <c r="D88" t="n">
-        <v>1.276109657485012</v>
+        <v>-2.187070013868574</v>
       </c>
       <c r="E88" t="n">
-        <v>-5.989548005330638</v>
+        <v>-0.4341679025069192</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-8.297366005066756</v>
+        <v>-1.875465345495842</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4171961435186068</v>
+        <v>0.4732646877911916</v>
       </c>
       <c r="C89" t="n">
-        <v>13.30983463078864</v>
+        <v>3.164615081421676</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.753826845325158</v>
+        <v>-1.046987358709468</v>
       </c>
       <c r="E89" t="n">
-        <v>-2.675837923915322</v>
+        <v>0.284572934992442</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.09209351869688291</v>
+        <v>-2.547510401771753</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.709373075263965</v>
+        <v>3.01259530939845</v>
       </c>
       <c r="C90" t="n">
-        <v>1.488273014252831</v>
+        <v>2.638975967614032</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2717879534315553</v>
+        <v>0.8865161227790315</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.1427814111173066</v>
+        <v>-2.99057699801976</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.886058792881396</v>
+        <v>-0.7658067414479436</v>
       </c>
       <c r="B91" t="n">
-        <v>2.201333898447066</v>
+        <v>0.4936259120215741</v>
       </c>
       <c r="C91" t="n">
-        <v>-3.062005268076339</v>
+        <v>1.832125516077666</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7398961808013067</v>
+        <v>-0.07938239956700287</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.765283604053429</v>
+        <v>-0.4805622870842949</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-1.65934873178869</v>
+        <v>-0.6921513263074485</v>
       </c>
       <c r="B92" t="n">
-        <v>2.412926477066969</v>
+        <v>2.288451559248255</v>
       </c>
       <c r="C92" t="n">
-        <v>3.155823203276558</v>
+        <v>0.6399609619405096</v>
       </c>
       <c r="D92" t="n">
-        <v>-2.137976908215854</v>
+        <v>-0.8984168954974158</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.7714240403389815</v>
+        <v>-0.3378442993838995</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-2.955307313199045</v>
+        <v>-4.532400185895555</v>
       </c>
       <c r="B93" t="n">
-        <v>4.688243278593338</v>
+        <v>9.035561965891345</v>
       </c>
       <c r="C93" t="n">
-        <v>3.820118474673247</v>
+        <v>15.67254614646974</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9835388584331559</v>
+        <v>-13.50366584777222</v>
       </c>
       <c r="E93" t="n">
-        <v>-5.536593298500694</v>
+        <v>-5.672042078693309</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-2.591704886723667</v>
+        <v>2.54280863777969</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.248599260088443</v>
+        <v>-2.498465201446306</v>
       </c>
       <c r="C94" t="n">
-        <v>4.556443347816963</v>
+        <v>-1.963205666679975</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06219395342739405</v>
+        <v>-0.9962815180699259</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2216668455677542</v>
+        <v>3.915143748416516</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.893888911716769</v>
+        <v>-7.523769028576824</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.940148499704711</v>
+        <v>0.9859290559868831</v>
       </c>
       <c r="C95" t="n">
-        <v>-8.207570339472261</v>
+        <v>8.75634798262227</v>
       </c>
       <c r="D95" t="n">
-        <v>1.163829725872702</v>
+        <v>1.235568043108829</v>
       </c>
       <c r="E95" t="n">
-        <v>3.090000201587498</v>
+        <v>-2.454076053141159</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>11.65022054781547</v>
+        <v>-0.3340686816098653</v>
       </c>
       <c r="B96" t="n">
-        <v>-13.93832119390257</v>
+        <v>2.531852260649026</v>
       </c>
       <c r="C96" t="n">
-        <v>-27.32039735642361</v>
+        <v>1.325890814699149</v>
       </c>
       <c r="D96" t="n">
-        <v>13.86454510957865</v>
+        <v>-0.9183985345795309</v>
       </c>
       <c r="E96" t="n">
-        <v>16.74395289293205</v>
+        <v>-1.605275859158775</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-1.058722678000666</v>
+        <v>0.7701636877094434</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7468949097747948</v>
+        <v>-0.6685992477809137</v>
       </c>
       <c r="C97" t="n">
-        <v>0.61492006310812</v>
+        <v>0.3644040476626731</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5612582231197319</v>
+        <v>0.8242721198213119</v>
       </c>
       <c r="E97" t="n">
-        <v>0.13564948199802</v>
+        <v>-0.2902406074125143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1.501379639859092</v>
+        <v>-1.365395315547238</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.7921975443459243</v>
+        <v>0.7187951349346655</v>
       </c>
       <c r="C98" t="n">
-        <v>1.39262909202959</v>
+        <v>1.546262809557594</v>
       </c>
       <c r="D98" t="n">
-        <v>1.087307251393594</v>
+        <v>0.1677917904976296</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8136408407818315</v>
+        <v>-0.06745441944265258</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.298232038537166</v>
+        <v>-3.198724791892914</v>
       </c>
       <c r="B99" t="n">
-        <v>1.798771565074023</v>
+        <v>1.142322154943863</v>
       </c>
       <c r="C99" t="n">
-        <v>-3.454533469145067</v>
+        <v>5.040532090885638</v>
       </c>
       <c r="D99" t="n">
-        <v>1.320894841086875</v>
+        <v>-0.6809537575339589</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.9633649755529967</v>
+        <v>-1.303175696402626</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1.569467326985823</v>
+        <v>-3.893708845230682</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8420562275174436</v>
+        <v>-0.4494016047402522</v>
       </c>
       <c r="C100" t="n">
-        <v>4.105724424242791</v>
+        <v>4.437104776104706</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.355143347315737</v>
+        <v>0.3483300879491918</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.023169977458675</v>
+        <v>0.5576755859170359</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7866494519809158</v>
+        <v>1.12426043383345</v>
       </c>
       <c r="B101" t="n">
-        <v>2.21209246703543</v>
+        <v>-1.144291829439426</v>
       </c>
       <c r="C101" t="n">
-        <v>1.408548088445552</v>
+        <v>0.442592896623382</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1838975078246904</v>
+        <v>-1.697775389036233</v>
       </c>
       <c r="E101" t="n">
-        <v>-3.223392499637206</v>
+        <v>2.27521388801883</v>
       </c>
     </row>
   </sheetData>
@@ -2188,502 +2188,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6437218630164122</v>
+        <v>1.512580857399026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6001771097284522</v>
+        <v>0.3966845125766175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5995723118028546</v>
+        <v>-0.1980486859347955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9658078194691512</v>
+        <v>0.5564721218486355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4067021095549021</v>
+        <v>0.535313470860073</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.203932284432355</v>
+        <v>1.085641219331847</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.020927337165222</v>
+        <v>-2.719459940306383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3846429199839979</v>
+        <v>2.149356817239537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6918914066713704</v>
+        <v>2.70779575950953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.372444607279709</v>
+        <v>0.9076557130366977</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3578500647157117</v>
+        <v>0.9024121621809272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4674033278157594</v>
+        <v>0.4472740174961078</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.627165372078874</v>
+        <v>0.2183160805397939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.295279403504552</v>
+        <v>0.3413266743052959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.636617232596652</v>
+        <v>0.378220883787018</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8207030320515819</v>
+        <v>0.5827503133197967</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5058154453581245</v>
+        <v>1.370348397778987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.543976976190032</v>
+        <v>2.759393215311215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.906767330407412</v>
+        <v>0.3989312085814435</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.734193404948982</v>
+        <v>0.5775001268805536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4714706190153004</v>
+        <v>0.942594453405469</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2797621714822716</v>
+        <v>-0.4078281326303581</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2757834722848705</v>
+        <v>-1.417335301164958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3162663501371585</v>
+        <v>0.5799600328404555</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3499847519432735</v>
+        <v>0.2106395293902669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.652381649427334</v>
+        <v>-1.403666709495963</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2610990004364964</v>
+        <v>-1.036922704449087</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.169870693136176</v>
+        <v>0.2018700427137428</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.391708715350607</v>
+        <v>1.084430910419958</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5500407768362513</v>
+        <v>0.3896739733905247</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3359729659284281</v>
+        <v>0.9932440708522494</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.30078951119464</v>
+        <v>0.580193781019504</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5031514268201621</v>
+        <v>0.6086854848626402</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.5998473530175834</v>
+        <v>0.2872119245488493</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3881799257415326</v>
+        <v>0.6082662082477495</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9794994420125211</v>
+        <v>0.2738950938746229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4430531164004138</v>
+        <v>0.9190803271660712</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.6575370051724052</v>
+        <v>-0.9191979420913304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4521122359818734</v>
+        <v>0.5345210322907926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.265289466423237</v>
+        <v>0.7002368237402214</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4075457686274716</v>
+        <v>1.273804955150628</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9410372262643101</v>
+        <v>0.6046815946308625</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-3.632848605429771</v>
+        <v>0.4360862395270185</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7964066154816298</v>
+        <v>0.4118352070845988</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5160662096046232</v>
+        <v>1.962049381731527</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6622322971410612</v>
+        <v>0.5243788228000824</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4641539457814967</v>
+        <v>0.4968254435967364</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4717647911551577</v>
+        <v>0.3181716400663921</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.426557673177814</v>
+        <v>0.4171117472963191</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.260515842445438</v>
+        <v>-0.3279064066773035</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.437861847093862</v>
+        <v>0.2533674783077423</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.161380521061349</v>
+        <v>1.151807140728123</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.056992215087055</v>
+        <v>0.5632179677544173</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4952479788912945</v>
+        <v>1.00649664837841</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4611738190712605</v>
+        <v>0.4355860409478164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.3946101940548479</v>
+        <v>0.5108342684382127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4848260865218743</v>
+        <v>1.382378734837175</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.6413401245002948</v>
+        <v>0.4799286874931478</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6746877833776257</v>
+        <v>0.5212712260515173</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5077332000087095</v>
+        <v>0.9890423163085261</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.6159482036743992</v>
+        <v>-30.01779054490004</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.2743350101616678</v>
+        <v>0.3029559924462443</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.513949829157375</v>
+        <v>0.5625317074985572</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.5475331248681806</v>
+        <v>0.6485925749224062</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.3563454728967858</v>
+        <v>-3.264641570903118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4530439685149771</v>
+        <v>0.2060681405927972</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3126568252576966</v>
+        <v>0.662257418796564</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3712967245853008</v>
+        <v>2.571282895337345</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.7324904277506579</v>
+        <v>0.3390721268738523</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.019497076630204</v>
+        <v>-0.5186093729020874</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6030178639854553</v>
+        <v>0.2970577368520415</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-2.600140956251892</v>
+        <v>0.6187138600335891</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6299197216220599</v>
+        <v>-1.892579902473057</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.221907662147672</v>
+        <v>1.276928286529791</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6292737568840513</v>
+        <v>0.8902807702845166</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.765509170629661</v>
+        <v>0.1812256673655099</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7838891660957924</v>
+        <v>4.837074908156382</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.121088654111373</v>
+        <v>0.7307446001934159</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.5085439542712138</v>
+        <v>3.077888312651189</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7516768297682489</v>
+        <v>-1.168556306475081</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.638808888389532</v>
+        <v>1.491416537124176</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.548603898200406</v>
+        <v>-0.8776809770612459</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.7903068923706987</v>
+        <v>0.1960732956750672</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2127203220195482</v>
+        <v>-0.5273720811581938</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7762935998330458</v>
+        <v>0.5245805707669625</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5437051215123759</v>
+        <v>0.2384472756827476</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.9517305786201024</v>
+        <v>0.5771842063826578</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.875350706433463</v>
+        <v>0.7233365872706484</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.3864662896674466</v>
+        <v>0.2312849132465213</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.3646938896549785</v>
+        <v>0.3818049232944575</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.6873781544516372</v>
+        <v>0.2889009947816058</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.2990072368263718</v>
+        <v>2.89516644968226</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7060027555891915</v>
+        <v>-0.4192491243348158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.8149126743044709</v>
+        <v>0.4712410527159381</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-4.011845174363269</v>
+        <v>0.540590817695867</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3182631583358782</v>
+        <v>0.2828566506220305</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.3135818226842069</v>
+        <v>0.252938599511646</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.3441479770430101</v>
+        <v>0.3745047069816489</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6027053949701086</v>
+        <v>0.500586996636885</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4841211184391039</v>
+        <v>0.4811918844866888</v>
       </c>
     </row>
   </sheetData>
@@ -2712,502 +2712,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08869751023134557</v>
+        <v>2.193698226103197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3433712453719168</v>
+        <v>0.06248462984467091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1126383338058199</v>
+        <v>0.04424222003731785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8518205394757372</v>
+        <v>0.09392148972180767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.09343830934247008</v>
+        <v>0.1102225765017402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4857587461207395</v>
+        <v>0.5274754634654991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2273726884026311</v>
+        <v>6.15547623871309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1013963097839028</v>
+        <v>1.775408654487502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.131502828413218</v>
+        <v>2.326608414632229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.964246315167347</v>
+        <v>0.3022350956583335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.08403800433689612</v>
+        <v>0.3461983663517695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.07766625560188307</v>
+        <v>0.04149795052576756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.908800648033349</v>
+        <v>0.04700500782414115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.035008931634537</v>
+        <v>0.06585952058682365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2691698989559613</v>
+        <v>0.05155035327201557</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3386864691801184</v>
+        <v>0.1032259972603499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07103739661108768</v>
+        <v>0.282266831360363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15.78022725394143</v>
+        <v>5.174231929723843</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.789720135955811</v>
+        <v>0.1672998703296206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.62595431756641</v>
+        <v>0.09389707410942018</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.09744486103672215</v>
+        <v>0.1814128518915518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.05329230094138385</v>
+        <v>0.3514925986992922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.04619039835982672</v>
+        <v>1.929603544549045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.08104612110555434</v>
+        <v>0.09210256412352096</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.05463544944560977</v>
+        <v>0.05124464244458116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.876929024522314</v>
+        <v>1.183101201861657</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.03803384899056496</v>
+        <v>0.5587793680789513</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1808009867897204</v>
+        <v>0.04895364467220998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.448660609362328</v>
+        <v>0.4651240176927188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1045943131912668</v>
+        <v>0.05393211466134486</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1738310211643863</v>
+        <v>0.4806224118623783</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3291002498760521</v>
+        <v>0.1168237908913645</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1876495205486692</v>
+        <v>0.3817312939600992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.319959991002894</v>
+        <v>0.1051681711852415</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1001888563057931</v>
+        <v>0.1447760575148742</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5529314447534208</v>
+        <v>0.05940175851712901</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0635408765026491</v>
+        <v>0.6428234522234723</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3944346231321707</v>
+        <v>0.3600556174704446</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2554160512686279</v>
+        <v>0.1218353000880937</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1400698159301267</v>
+        <v>0.1980919659686212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0565477546720456</v>
+        <v>0.5791332075424214</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3503374898355414</v>
+        <v>0.2206256533694938</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.446807443748567</v>
+        <v>0.04526021944596419</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.2746345572670653</v>
+        <v>0.1030220668013969</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.07331910343512801</v>
+        <v>1.446176465349034</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3393418310200957</v>
+        <v>0.1731266490349188</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1068100499245515</v>
+        <v>0.08469769443596732</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.04243331468628949</v>
+        <v>0.03415311808446954</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.099527708473828</v>
+        <v>0.09736256295369772</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7410961466881912</v>
+        <v>0.3463148536762284</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.816742222859302</v>
+        <v>0.04885498016650004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.5422369397973195</v>
+        <v>0.3391380041346427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.257833365228567</v>
+        <v>0.2520371828164948</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1566024784529951</v>
+        <v>0.2409284521682037</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.05076332019439554</v>
+        <v>0.12481174544801</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.05100333642144162</v>
+        <v>0.1284178842584248</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.2348561734172661</v>
+        <v>0.5178463738235165</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1525245034800146</v>
+        <v>0.07291237019205382</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.07975406071619495</v>
+        <v>0.07606315179879831</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.08799447983800107</v>
+        <v>0.2934810191916687</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1278371603203188</v>
+        <v>325.5184544945378</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.08935050588736332</v>
+        <v>0.06025723931447173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1125533478358616</v>
+        <v>1.075200511156142</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.043038675014341</v>
+        <v>0.102765915824819</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.04629536076750596</v>
+        <v>11.36183554165007</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1475896768574565</v>
+        <v>0.0391395101849344</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0654961091206753</v>
+        <v>0.1110279708817937</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1062458231449702</v>
+        <v>2.219137716204107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3636620157959994</v>
+        <v>0.04071953713715462</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>12.75870540989633</v>
+        <v>0.08753885435452961</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1337616929646487</v>
+        <v>0.05592237388499902</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.714587090575145</v>
+        <v>0.1655823647060571</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.05009601627560584</v>
+        <v>4.656203343217154</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.753574514242171</v>
+        <v>0.5444600588974858</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.2183522095580961</v>
+        <v>0.5859760567618629</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.310585979226499</v>
+        <v>0.08655403427428636</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.2816684307585036</v>
+        <v>6.154709950335083</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.031843554037668</v>
+        <v>0.2322790170317953</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.1945777698368549</v>
+        <v>3.03040122320707</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.2287072297990521</v>
+        <v>0.9303999908408903</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.268201407273386</v>
+        <v>0.9225973490001552</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.237346308232899</v>
+        <v>0.285750599679254</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8578778528043322</v>
+        <v>0.03386268700064075</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.02687841043073164</v>
+        <v>0.6194801289119872</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.06961678311733691</v>
+        <v>0.6861164005540639</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.2034975214463634</v>
+        <v>0.03816307867965052</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.3928495867337533</v>
+        <v>0.2177505630555739</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8822947870212552</v>
+        <v>0.08177456222998225</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.06117516499708561</v>
+        <v>0.06817170167195444</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.09465348488808754</v>
+        <v>0.05377203126392995</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.0976830874756849</v>
+        <v>0.06729319722402613</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.259456524403423</v>
+        <v>3.014329586088912</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1605699694820207</v>
+        <v>0.167114772814678</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3208665687735648</v>
+        <v>0.2973078647179712</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.562248008160449</v>
+        <v>0.07632474395396012</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.03525662777360604</v>
+        <v>0.0270804287105261</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.04949399609823289</v>
+        <v>0.0613788037851822</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.08187817339857539</v>
+        <v>0.1807128383646638</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.201784524419538</v>
+        <v>0.1325407211072962</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.1289234045202861</v>
+        <v>0.2530325740252306</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_data_analytique.xlsx
+++ b/portfolio_data_analytique.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tangent Weights" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tangent Returns" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tangent Variance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tangent SR" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,1702 +465,1702 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-22.58697270988361</v>
+        <v>0.2168197782516343</v>
       </c>
       <c r="B2" t="n">
-        <v>5.209063380836141</v>
+        <v>0.1633103932129595</v>
       </c>
       <c r="C2" t="n">
-        <v>10.2497650629194</v>
+        <v>1.550269879366916</v>
       </c>
       <c r="D2" t="n">
-        <v>9.536040781814723</v>
+        <v>0.4270741155191261</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.407896515686662</v>
+        <v>-1.357474166350636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.521130115676921</v>
+        <v>3.812547599204139</v>
       </c>
       <c r="B3" t="n">
-        <v>1.153111587868303</v>
+        <v>0.8184697548344984</v>
       </c>
       <c r="C3" t="n">
-        <v>1.680138013054995</v>
+        <v>-1.68236591970934</v>
       </c>
       <c r="D3" t="n">
-        <v>1.781431960973604</v>
+        <v>0.04050391335625732</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.093551446219982</v>
+        <v>-1.989155347685555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.78016119233348</v>
+        <v>0.9003903194536566</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6980760564813197</v>
+        <v>0.2859692856627388</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.137004709794223</v>
+        <v>1.317407090037165</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1425641156113218</v>
+        <v>-0.2380065896730271</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.483796654631898</v>
+        <v>-1.265760105480534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5903462284067846</v>
+        <v>-6.717080596029011</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4552527994524269</v>
+        <v>5.554334373319591</v>
       </c>
       <c r="C5" t="n">
-        <v>1.794334546782658</v>
+        <v>8.842930704667145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3921035329115843</v>
+        <v>-2.82445780561035</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.321531508648599</v>
+        <v>-3.855726676347375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.7059402398267</v>
+        <v>4.767072198441674</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7760171164600239</v>
+        <v>2.036258563536098</v>
       </c>
       <c r="C6" t="n">
-        <v>2.735002391843586</v>
+        <v>-8.503372107726232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.592344748821483</v>
+        <v>3.712423661103513</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.397424017298394</v>
+        <v>-1.012382315355053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.079239840077132</v>
+        <v>-6.426123416443237</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.327857507723911</v>
+        <v>-7.101137156134713</v>
       </c>
       <c r="C7" t="n">
-        <v>7.314865395837532</v>
+        <v>6.742290455393097</v>
       </c>
       <c r="D7" t="n">
-        <v>3.362060725551612</v>
+        <v>1.77867705545747</v>
       </c>
       <c r="E7" t="n">
-        <v>3.730171226411897</v>
+        <v>6.006293061727383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27.3888968921147</v>
+        <v>13.95218247000425</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.967720126106618</v>
+        <v>1.840738524416216</v>
       </c>
       <c r="C8" t="n">
-        <v>-24.14133868259541</v>
+        <v>-17.65941292404296</v>
       </c>
       <c r="D8" t="n">
-        <v>9.615803610467896</v>
+        <v>2.396338818339615</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.895641693880582</v>
+        <v>0.4701531112828837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-8.347076572074199</v>
+        <v>-5.459467720602521</v>
       </c>
       <c r="B9" t="n">
-        <v>2.627395889874093</v>
+        <v>-4.246702794810675</v>
       </c>
       <c r="C9" t="n">
-        <v>13.48761215396626</v>
+        <v>4.59281000034968</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.49090124402736</v>
+        <v>-0.2077895276726016</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.277030227738792</v>
+        <v>6.321150042736118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-11.83730264107372</v>
+        <v>2.103508328231773</v>
       </c>
       <c r="B10" t="n">
-        <v>9.547234669208132</v>
+        <v>0.3256858998659722</v>
       </c>
       <c r="C10" t="n">
-        <v>17.56268852849127</v>
+        <v>-3.108388171283349</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.187641386786463</v>
+        <v>0.1370129804518036</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.084979169839216</v>
+        <v>1.542180962733801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.626695610891769</v>
+        <v>-36.04431353748137</v>
       </c>
       <c r="B11" t="n">
-        <v>2.321532026611532</v>
+        <v>-42.51495914202972</v>
       </c>
       <c r="C11" t="n">
-        <v>5.734884854365703</v>
+        <v>-107.8612016409055</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.410995675961006</v>
+        <v>72.38180558983225</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.018725594124462</v>
+        <v>115.0386687305844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.642979998415646</v>
+        <v>-0.8356515274755263</v>
       </c>
       <c r="B12" t="n">
-        <v>4.417518942389163</v>
+        <v>-0.8066073371244559</v>
       </c>
       <c r="C12" t="n">
-        <v>5.980522134626548</v>
+        <v>2.339263369070462</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.067399877844577</v>
+        <v>0.433249869239035</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.687661200755487</v>
+        <v>-0.1302543737095133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.401067695918427</v>
+        <v>-2.959893692937623</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9688460704878542</v>
+        <v>4.309312333279065</v>
       </c>
       <c r="C13" t="n">
-        <v>1.856927884991086</v>
+        <v>3.868752383409691</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3970710220095263</v>
+        <v>-2.087822749708767</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02763523755098806</v>
+        <v>-2.130348274042366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.5515766959934183</v>
+        <v>-3.943744529878928</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2968129516232848</v>
+        <v>0.5360152975591537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6075785609610848</v>
+        <v>3.948345389340342</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4252405673864041</v>
+        <v>1.576416605519674</v>
       </c>
       <c r="E14" t="n">
-        <v>1.072425750795455</v>
+        <v>-1.117032762540243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.822568624552633</v>
+        <v>-7.801867839700912</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.284279011598891</v>
+        <v>0.5539329266910707</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7118427339472687</v>
+        <v>5.380988952963507</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6879038324652254</v>
+        <v>4.187743789426038</v>
       </c>
       <c r="E15" t="n">
-        <v>1.707101069739027</v>
+        <v>-1.320797829379702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.591033700155109</v>
+        <v>-27.67300924644135</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1456558558705364</v>
+        <v>15.36968000119121</v>
       </c>
       <c r="C16" t="n">
-        <v>1.38859408733329</v>
+        <v>38.94928145734728</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02267011993912998</v>
+        <v>-22.87802662921554</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3707655886314856</v>
+        <v>-2.7679255828816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.77856700741676</v>
+        <v>-18.09668610534301</v>
       </c>
       <c r="B17" t="n">
-        <v>1.185455600762033</v>
+        <v>-250.1814125503134</v>
       </c>
       <c r="C17" t="n">
-        <v>4.161039129033297</v>
+        <v>154.7644135201444</v>
       </c>
       <c r="D17" t="n">
-        <v>1.058203975056236</v>
+        <v>-92.92088623585676</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.626131697434806</v>
+        <v>207.4345713713689</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-3.251111087490756</v>
+        <v>-1.128439261242708</v>
       </c>
       <c r="B18" t="n">
-        <v>3.244495452519913</v>
+        <v>1.460251122043748</v>
       </c>
       <c r="C18" t="n">
-        <v>5.398965783138886</v>
+        <v>3.034215257416791</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.702910389819208</v>
+        <v>-2.039137776519393</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6894397583488334</v>
+        <v>-0.3268893416984382</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-19.02978861107338</v>
+        <v>-2.879479987244956</v>
       </c>
       <c r="B19" t="n">
-        <v>-6.952366932594153</v>
+        <v>3.123899899451778</v>
       </c>
       <c r="C19" t="n">
-        <v>21.79703780275226</v>
+        <v>5.080917141298023</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.474077522180357</v>
+        <v>-1.145462028678891</v>
       </c>
       <c r="E19" t="n">
-        <v>11.65919526309563</v>
+        <v>-3.179875024825957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2322881422047758</v>
+        <v>1.552750959864872</v>
       </c>
       <c r="B20" t="n">
-        <v>1.925110128493736</v>
+        <v>-0.7513259407128292</v>
       </c>
       <c r="C20" t="n">
-        <v>3.327592753463316</v>
+        <v>-0.2576080206288096</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2918318660059951</v>
+        <v>-0.1915002461472914</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.728582873746282</v>
+        <v>0.6476832476240566</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.216640817596762</v>
+        <v>-1.407749841555188</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4728805795713463</v>
+        <v>-0.9473148333049611</v>
       </c>
       <c r="C21" t="n">
-        <v>2.894400261790852</v>
+        <v>2.603220932959257</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4617905749187995</v>
+        <v>0.7025501858401734</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.688849448846638</v>
+        <v>0.04929355606071768</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.46080038921122</v>
+        <v>-3.935361510967537</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1916262376997069</v>
+        <v>1.693399555441779</v>
       </c>
       <c r="C22" t="n">
-        <v>4.864628315018623</v>
+        <v>5.796534489456758</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.211113208992805</v>
+        <v>-2.304648548043731</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3843409545143095</v>
+        <v>-0.2499239858872712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.314182900666587</v>
+        <v>-0.8069743207823615</v>
       </c>
       <c r="B23" t="n">
-        <v>4.250010149378085</v>
+        <v>0.737651538556293</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.910001272529485</v>
+        <v>1.471649597321659</v>
       </c>
       <c r="D23" t="n">
-        <v>2.64817842525497</v>
+        <v>-0.1732840456095384</v>
       </c>
       <c r="E23" t="n">
-        <v>-3.302370202770158</v>
+        <v>-0.229042769486055</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20.29884382356592</v>
+        <v>-3.571980741505936</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.5806427868864703</v>
+        <v>3.570492587988675</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.7721343987861</v>
+        <v>3.509504243175486</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.827219126578765</v>
+        <v>-2.967073674198584</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.11884751131458</v>
+        <v>0.4590575845403582</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1.902085095486151</v>
+        <v>-0.6368327349403323</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.141109364823188</v>
+        <v>-0.3724106472131919</v>
       </c>
       <c r="C25" t="n">
-        <v>2.675663104268133</v>
+        <v>1.552398371782481</v>
       </c>
       <c r="D25" t="n">
-        <v>1.195697456862202</v>
+        <v>0.7190045924073512</v>
       </c>
       <c r="E25" t="n">
-        <v>1.171833899179004</v>
+        <v>-0.262159582036307</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.416866560299785</v>
+        <v>0.8708631551994944</v>
       </c>
       <c r="B26" t="n">
-        <v>1.204985654687212</v>
+        <v>-1.077058784691142</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3268405857856226</v>
+        <v>1.180494987005924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.190663495940726</v>
+        <v>0.4095181883981597</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.139356296713344</v>
+        <v>-0.3838175459124352</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-12.8783627854591</v>
+        <v>36.24083275505868</v>
       </c>
       <c r="B27" t="n">
-        <v>2.940662345771032</v>
+        <v>-5.449197565009804</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6303231200143059</v>
+        <v>-43.25182383947715</v>
       </c>
       <c r="D27" t="n">
-        <v>4.938536470256442</v>
+        <v>19.3153674618839</v>
       </c>
       <c r="E27" t="n">
-        <v>5.368840849417317</v>
+        <v>-5.855178812455641</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.622543278251834</v>
+        <v>0.6048294648817357</v>
       </c>
       <c r="B28" t="n">
-        <v>2.36271758873321</v>
+        <v>-0.6223367217048237</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.487570914712856</v>
+        <v>1.029022032596352</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8532289230152338</v>
+        <v>0.4601431055829577</v>
       </c>
       <c r="E28" t="n">
-        <v>1.355538970743046</v>
+        <v>-0.4716578813562227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.330385929971621</v>
+        <v>8.327428957022702</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4892064923157528</v>
+        <v>-0.485752045187046</v>
       </c>
       <c r="C29" t="n">
-        <v>1.194676215757198</v>
+        <v>-12.87398517309835</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7387056021316157</v>
+        <v>3.487045327656643</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8862106043985597</v>
+        <v>2.545262933606051</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.60737540861612</v>
+        <v>-3.405801902305785</v>
       </c>
       <c r="B30" t="n">
-        <v>2.687438508853082</v>
+        <v>0.6791297860766268</v>
       </c>
       <c r="C30" t="n">
-        <v>5.716387116347732</v>
+        <v>3.178572865278512</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.388563687989746</v>
+        <v>0.6428290404689092</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.407886528594944</v>
+        <v>-0.09472978951826189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.5210871005936868</v>
+        <v>-0.567150820737552</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.629231301548111</v>
+        <v>0.4428067324867329</v>
       </c>
       <c r="C31" t="n">
-        <v>1.067138171623695</v>
+        <v>2.010108374056629</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8475306724499253</v>
+        <v>0.6773149728980539</v>
       </c>
       <c r="E31" t="n">
-        <v>1.235649558068177</v>
+        <v>-1.563079258703863</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-5.414901443002873</v>
+        <v>0.6861919685593345</v>
       </c>
       <c r="B32" t="n">
-        <v>2.467696200045985</v>
+        <v>-0.1709200795331156</v>
       </c>
       <c r="C32" t="n">
-        <v>7.753984259639989</v>
+        <v>2.019736739303554</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.309975094763903</v>
+        <v>0.03283254418829012</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.4968039219191943</v>
+        <v>-1.567841172518063</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2.092664039652711</v>
+        <v>5.232302827902735</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.50639997091563</v>
+        <v>-1.035671438755774</v>
       </c>
       <c r="C33" t="n">
-        <v>2.668196137402962</v>
+        <v>-8.766002259912634</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01291330257010609</v>
+        <v>2.345350765302867</v>
       </c>
       <c r="E33" t="n">
-        <v>1.943781175735482</v>
+        <v>3.224020105462806</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-7.822890734441353</v>
+        <v>-9.625401077210494</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01744192919787049</v>
+        <v>1.806920395735657</v>
       </c>
       <c r="C34" t="n">
-        <v>9.027671842741915</v>
+        <v>12.39531158524484</v>
       </c>
       <c r="D34" t="n">
-        <v>1.425691767298781</v>
+        <v>-0.3487445013530506</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.647914804797216</v>
+        <v>-3.228086402416945</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1.294595044012993</v>
+        <v>0.02585998340492087</v>
       </c>
       <c r="B35" t="n">
-        <v>1.10832087321225</v>
+        <v>0.4217920537986268</v>
       </c>
       <c r="C35" t="n">
-        <v>3.541445439555701</v>
+        <v>0.4462429535629595</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4210326134796497</v>
+        <v>-0.8806300332761905</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.934138655275312</v>
+        <v>0.9867350425096835</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-2.036679490647298</v>
+        <v>-8.200702047783848</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.4138055647097216</v>
+        <v>3.574443460702225</v>
       </c>
       <c r="C36" t="n">
-        <v>3.127470208022726</v>
+        <v>6.528159069782379</v>
       </c>
       <c r="D36" t="n">
-        <v>1.809895809248402</v>
+        <v>2.470752506265832</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.486880961914109</v>
+        <v>-3.372652988966589</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.000346910162822993</v>
+        <v>7.194575697721221</v>
       </c>
       <c r="B37" t="n">
-        <v>1.138016831041277</v>
+        <v>1.684791699402467</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0433518147211178</v>
+        <v>-15.80357733069163</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4284129493145823</v>
+        <v>7.13635280297875</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3340948431572474</v>
+        <v>0.7878571305891934</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.068607025973992</v>
+        <v>-1.310025722264046</v>
       </c>
       <c r="B38" t="n">
-        <v>3.192799037475387</v>
+        <v>-0.2333931936210058</v>
       </c>
       <c r="C38" t="n">
-        <v>8.095777086591992</v>
+        <v>1.213156216560878</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.161720156162932</v>
+        <v>1.380660000750215</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.058248941930454</v>
+        <v>-0.05039730142604119</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.059753908526393</v>
+        <v>-2.675772158914042</v>
       </c>
       <c r="B39" t="n">
-        <v>2.391361653556708</v>
+        <v>3.240236559392047</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.896681058324674</v>
+        <v>4.252096833600095</v>
       </c>
       <c r="D39" t="n">
-        <v>1.905097943532535</v>
+        <v>-3.411649271661951</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.459532447290964</v>
+        <v>-0.4049119624161508</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1.565432220437508</v>
+        <v>-0.8838976794934765</v>
       </c>
       <c r="B40" t="n">
-        <v>3.710542296312493</v>
+        <v>-0.5300959345313024</v>
       </c>
       <c r="C40" t="n">
-        <v>3.179106526998612</v>
+        <v>1.703939500904162</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.931243576334418</v>
+        <v>0.1404028820901038</v>
       </c>
       <c r="E40" t="n">
-        <v>-3.392973026539178</v>
+        <v>0.5696512310305133</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-3.566708046133729</v>
+        <v>-1.677326419505695</v>
       </c>
       <c r="B41" t="n">
-        <v>1.064885406091767</v>
+        <v>1.725538462628546</v>
       </c>
       <c r="C41" t="n">
-        <v>1.479000276345384</v>
+        <v>1.003545103584683</v>
       </c>
       <c r="D41" t="n">
-        <v>4.811665617773484</v>
+        <v>0.1862297818606985</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.788843254076907</v>
+        <v>-0.2379869285682327</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-2.366686752405385</v>
+        <v>0.135012529161986</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.782421117229442</v>
+        <v>0.4566301263451648</v>
       </c>
       <c r="C42" t="n">
-        <v>7.295820062673514</v>
+        <v>0.6822229261450462</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.8532885499033653</v>
+        <v>0.2578555233318038</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2934236431353243</v>
+        <v>-0.5317211049840002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-4.634485457163396</v>
+        <v>1.934441629410763</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.857315941522607</v>
+        <v>0.5084305237225729</v>
       </c>
       <c r="C43" t="n">
-        <v>4.874968116480706</v>
+        <v>-1.24691240606789</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05520956051374303</v>
+        <v>1.477495480536617</v>
       </c>
       <c r="E43" t="n">
-        <v>2.561623721691555</v>
+        <v>-1.673455227602064</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.252309148813501</v>
+        <v>-2.720395534564857</v>
       </c>
       <c r="B44" t="n">
-        <v>1.358834345253529</v>
+        <v>5.034229848767303</v>
       </c>
       <c r="C44" t="n">
-        <v>1.812169778012894</v>
+        <v>-1.792902429968488</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.4372724305906021</v>
+        <v>3.917198167308773</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.4814225438623187</v>
+        <v>-3.43813005154273</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-2.917546322522884</v>
+        <v>2.929445842022818</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.971160111819233</v>
+        <v>-7.304766938591934</v>
       </c>
       <c r="C45" t="n">
-        <v>2.965379130039147</v>
+        <v>2.437478726062238</v>
       </c>
       <c r="D45" t="n">
-        <v>1.558378055060121</v>
+        <v>-0.2574837481703743</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3649492492428477</v>
+        <v>3.195326118677252</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-2.98451130728383</v>
+        <v>-1.292536131392251</v>
       </c>
       <c r="B46" t="n">
-        <v>13.82273355641946</v>
+        <v>0.1381158176048893</v>
       </c>
       <c r="C46" t="n">
-        <v>6.135562518580306</v>
+        <v>1.520602886539314</v>
       </c>
       <c r="D46" t="n">
-        <v>-9.248904564408919</v>
+        <v>0.9523047218637953</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.724880203307015</v>
+        <v>-0.3184872946157479</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-2.863700872159639</v>
+        <v>-0.3815897148827027</v>
       </c>
       <c r="B47" t="n">
-        <v>-3.118745407971804</v>
+        <v>-8.938732016421678</v>
       </c>
       <c r="C47" t="n">
-        <v>1.649737071044537</v>
+        <v>7.633668083887629</v>
       </c>
       <c r="D47" t="n">
-        <v>2.234609919887943</v>
+        <v>0.8902806611362991</v>
       </c>
       <c r="E47" t="n">
-        <v>3.098099289198962</v>
+        <v>1.796372986280451</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-2.132482284128103</v>
+        <v>-2.307670926798826</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.455442487824685</v>
+        <v>2.73338639328033</v>
       </c>
       <c r="C48" t="n">
-        <v>2.61904664100281</v>
+        <v>3.388299942285204</v>
       </c>
       <c r="D48" t="n">
-        <v>1.321604999831506</v>
+        <v>0.7554401356695996</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6472731311184717</v>
+        <v>-3.569455544436309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.478993532706964</v>
+        <v>-3.000897862343994</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.3535552498156721</v>
+        <v>-0.247787636903649</v>
       </c>
       <c r="C49" t="n">
-        <v>0.759582272979976</v>
+        <v>4.007776701726722</v>
       </c>
       <c r="D49" t="n">
-        <v>0.854048852318042</v>
+        <v>-1.01662859025332</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.7390694081893094</v>
+        <v>1.257537387774242</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-2.292763082464502</v>
+        <v>-1.452005372397945</v>
       </c>
       <c r="B50" t="n">
-        <v>2.504442437613571</v>
+        <v>-1.452137576733663</v>
       </c>
       <c r="C50" t="n">
-        <v>2.796850432520274</v>
+        <v>2.076023727096432</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1689515085052258</v>
+        <v>0.7680974047259198</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.839578279164115</v>
+        <v>1.060021817309254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.719487597325439</v>
+        <v>-1.639329298676166</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.827105272818799</v>
+        <v>1.198635281702095</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.996978518319129</v>
+        <v>2.660496927171373</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3099985220244086</v>
+        <v>-0.2993747339654693</v>
       </c>
       <c r="E51" t="n">
-        <v>4.794597671788079</v>
+        <v>-0.9204281762318327</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.1660055763040001</v>
+        <v>-3.231682366493877</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9091116255160296</v>
+        <v>0.2017719096537087</v>
       </c>
       <c r="C52" t="n">
-        <v>1.045497313249114</v>
+        <v>3.932617405218482</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06088680866176506</v>
+        <v>1.21483688789642</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.8494901711229103</v>
+        <v>-1.117543836274735</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-6.15744125036938</v>
+        <v>-4.4684240038879</v>
       </c>
       <c r="B53" t="n">
-        <v>1.627272591285168</v>
+        <v>9.432442510469722</v>
       </c>
       <c r="C53" t="n">
-        <v>5.914564628068801</v>
+        <v>8.28392004613157</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.259728611651423</v>
+        <v>-4.926870432692432</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8753326426668336</v>
+        <v>-7.321068120020959</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.503676654274674</v>
+        <v>-1.485028005854405</v>
       </c>
       <c r="B54" t="n">
-        <v>2.266615276765665</v>
+        <v>-2.144624996205612</v>
       </c>
       <c r="C54" t="n">
-        <v>4.727565940695527</v>
+        <v>8.715648041267844</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.078723931894503</v>
+        <v>-1.388007985879034</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.411780631292016</v>
+        <v>-2.697987053328794</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.188332946353224</v>
+        <v>-11.10466348670944</v>
       </c>
       <c r="B55" t="n">
-        <v>-2.074667273753112</v>
+        <v>-7.121477955808115</v>
       </c>
       <c r="C55" t="n">
-        <v>1.931009541233154</v>
+        <v>12.8754681717039</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.4384072428595108</v>
+        <v>4.498140514156333</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6062679709737566</v>
+        <v>1.852532756657313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-2.995613085059893</v>
+        <v>8.220682515845656</v>
       </c>
       <c r="B56" t="n">
-        <v>1.557413297011953</v>
+        <v>-2.008557281823517</v>
       </c>
       <c r="C56" t="n">
-        <v>4.740998645124996</v>
+        <v>-3.875504960369026</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.3848788672957347</v>
+        <v>-0.9442697790744742</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.917919989781322</v>
+        <v>-0.3923504945786354</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-3.28922736278611</v>
+        <v>0.0701976542607796</v>
       </c>
       <c r="B57" t="n">
-        <v>4.011589189725473</v>
+        <v>5.998036131418291</v>
       </c>
       <c r="C57" t="n">
-        <v>3.676351821722376</v>
+        <v>8.345535675224589</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.284548456990037</v>
+        <v>-6.879665038052301</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.1141651916717</v>
+        <v>-6.534104422851359</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-5.517375223520321</v>
+        <v>-1.258757200005227</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8700765565044302</v>
+        <v>1.063384958845492</v>
       </c>
       <c r="C58" t="n">
-        <v>4.631611675079343</v>
+        <v>3.425143578613289</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.089627556848595</v>
+        <v>-1.166412013866354</v>
       </c>
       <c r="E58" t="n">
-        <v>4.105314548785146</v>
+        <v>-1.0633593235872</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-3.162623772206609</v>
+        <v>-3.854684912958658</v>
       </c>
       <c r="B59" t="n">
-        <v>1.577443820484169</v>
+        <v>0.443890677218387</v>
       </c>
       <c r="C59" t="n">
-        <v>1.85789662471781</v>
+        <v>6.166762166828339</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6556705724588495</v>
+        <v>1.834970314124768</v>
       </c>
       <c r="E59" t="n">
-        <v>0.07161275454578034</v>
+        <v>-3.590938245212835</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1.607579577554855</v>
+        <v>-4.840532087322448</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8213831621189879</v>
+        <v>-4.804738495495189</v>
       </c>
       <c r="C60" t="n">
-        <v>2.414039025296471</v>
+        <v>5.934689598496878</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1141248350606619</v>
+        <v>-6.659903982606251</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5137177747999423</v>
+        <v>11.37048496692702</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-5.715517086751521</v>
+        <v>-3.655008120572331</v>
       </c>
       <c r="B61" t="n">
-        <v>2.564623966431461</v>
+        <v>0.8344420563711573</v>
       </c>
       <c r="C61" t="n">
-        <v>7.784407162873624</v>
+        <v>6.381607405587506</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.463699625636396</v>
+        <v>-1.320354353024343</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.169814416917168</v>
+        <v>-1.240686988361993</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-23.45854842487536</v>
+        <v>-1.160244649263487</v>
       </c>
       <c r="B62" t="n">
-        <v>-113.9413063759628</v>
+        <v>0.2208277521350073</v>
       </c>
       <c r="C62" t="n">
-        <v>-177.3226485427125</v>
+        <v>1.711628336726313</v>
       </c>
       <c r="D62" t="n">
-        <v>125.1396004308596</v>
+        <v>0.3915863734548087</v>
       </c>
       <c r="E62" t="n">
-        <v>190.582902912691</v>
+        <v>-0.1637978130526411</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.3202494145734687</v>
+        <v>-0.1501495449517373</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.5097007637494392</v>
+        <v>-0.1412264569150342</v>
       </c>
       <c r="C63" t="n">
-        <v>1.520356724246396</v>
+        <v>0.4566973367161479</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3155235482865029</v>
+        <v>0.2046682948162799</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.005930094209992407</v>
+        <v>0.6300103703343429</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-12.38468704044639</v>
+        <v>-0.04450991206119277</v>
       </c>
       <c r="B64" t="n">
-        <v>5.208080957527087</v>
+        <v>0.8464800641425522</v>
       </c>
       <c r="C64" t="n">
-        <v>12.09202311940418</v>
+        <v>0.8986003827839442</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.600582128747709</v>
+        <v>-1.019400421454887</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6851650922628335</v>
+        <v>0.3188298865895828</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.803551671339004</v>
+        <v>0.6877134388807392</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.005827697925327</v>
+        <v>0.5603665850525803</v>
       </c>
       <c r="C65" t="n">
-        <v>3.188892179567119</v>
+        <v>0.3681285613215361</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.2866117727953084</v>
+        <v>-1.462481447657231</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9070989624925232</v>
+        <v>0.8462728624023741</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-20.34759528434242</v>
+        <v>-0.9105543675208241</v>
       </c>
       <c r="B66" t="n">
-        <v>2.091276361523331</v>
+        <v>-2.356355744742207</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.906451307618385</v>
+        <v>1.868209049692445</v>
       </c>
       <c r="D66" t="n">
-        <v>14.21481492116404</v>
+        <v>0.9319319338349105</v>
       </c>
       <c r="E66" t="n">
-        <v>13.94795530927344</v>
+        <v>1.466769128735675</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3598939916652042</v>
+        <v>-5.085192107597445</v>
       </c>
       <c r="B67" t="n">
-        <v>1.333883140535304</v>
+        <v>2.300236774710334</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.5160601569327727</v>
+        <v>5.458928784578947</v>
       </c>
       <c r="D67" t="n">
-        <v>1.379528697539387</v>
+        <v>-0.2999299790982499</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.557245672807123</v>
+        <v>-1.374043472593585</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-2.729589570936644</v>
+        <v>-2.385338914040677</v>
       </c>
       <c r="B68" t="n">
-        <v>2.090464788328625</v>
+        <v>-0.03543511844333293</v>
       </c>
       <c r="C68" t="n">
-        <v>3.255287588188845</v>
+        <v>2.944335918272331</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.6233661710368654</v>
+        <v>0.006979456464966547</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9927966345439599</v>
+        <v>0.4694586577467135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-13.32518983873137</v>
+        <v>-8.065028424097658</v>
       </c>
       <c r="B69" t="n">
-        <v>7.417105035127172</v>
+        <v>0.6483256181010156</v>
       </c>
       <c r="C69" t="n">
-        <v>16.21531089992078</v>
+        <v>6.902384214142441</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.4884190941884912</v>
+        <v>-0.982892619586227</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.818807002128091</v>
+        <v>2.497211211440429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.6193697117501867</v>
+        <v>-1.002133025941042</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.4281931318325265</v>
+        <v>-2.450580236594479</v>
       </c>
       <c r="C70" t="n">
-        <v>1.598604231228077</v>
+        <v>0.86396912425155</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3078547856098897</v>
+        <v>3.18927445429043</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1411038267447482</v>
+        <v>0.3994696839935395</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.481608408898804</v>
+        <v>-0.123972725407184</v>
       </c>
       <c r="B71" t="n">
-        <v>0.102262239274675</v>
+        <v>1.281989416247313</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.634880961795422</v>
+        <v>0.7284579727003285</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.042070699032967</v>
+        <v>0.6955293247544225</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09308101265490998</v>
+        <v>-1.582003988294881</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.5599363117370471</v>
+        <v>4.742101043098737</v>
       </c>
       <c r="B72" t="n">
-        <v>1.515955130645918</v>
+        <v>-0.5824298863984778</v>
       </c>
       <c r="C72" t="n">
-        <v>1.591470475976554</v>
+        <v>-9.419532565344621</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.5372335523892062</v>
+        <v>4.895846815326854</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.010255742496219</v>
+        <v>1.36401459331751</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-3.122288278899937</v>
+        <v>0.1264061632920486</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.812023683104735</v>
+        <v>1.172063902657813</v>
       </c>
       <c r="C73" t="n">
-        <v>3.633934254410648</v>
+        <v>0.9700296893036553</v>
       </c>
       <c r="D73" t="n">
-        <v>1.258273460857733</v>
+        <v>1.163245746647917</v>
       </c>
       <c r="E73" t="n">
-        <v>2.042104246736288</v>
+        <v>-2.431745501901436</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-17.6519254892779</v>
+        <v>-3.102254917884372</v>
       </c>
       <c r="B74" t="n">
-        <v>12.2660889528294</v>
+        <v>0.1885266853654622</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.28845977785759</v>
+        <v>4.211730285482298</v>
       </c>
       <c r="D74" t="n">
-        <v>5.805630039741883</v>
+        <v>-2.126948561062806</v>
       </c>
       <c r="E74" t="n">
-        <v>3.868666274564212</v>
+        <v>1.828946508099416</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-8.249011395976288</v>
+        <v>2.542407024114739</v>
       </c>
       <c r="B75" t="n">
-        <v>-3.725997829338958</v>
+        <v>-5.126872932662723</v>
       </c>
       <c r="C75" t="n">
-        <v>5.602791576389877</v>
+        <v>1.598989017824289</v>
       </c>
       <c r="D75" t="n">
-        <v>2.073991280727677</v>
+        <v>1.006635510809162</v>
       </c>
       <c r="E75" t="n">
-        <v>5.298226368197694</v>
+        <v>0.9788413799145304</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-3.766488935561064</v>
+        <v>-0.5231020703674855</v>
       </c>
       <c r="B76" t="n">
-        <v>1.039390543568242</v>
+        <v>1.491409101479577</v>
       </c>
       <c r="C76" t="n">
-        <v>6.781561509874082</v>
+        <v>1.193303867013404</v>
       </c>
       <c r="D76" t="n">
-        <v>-3.171685135741296</v>
+        <v>-0.1050393549172116</v>
       </c>
       <c r="E76" t="n">
-        <v>0.117222017860033</v>
+        <v>-1.056571543208283</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.4263490803300961</v>
+        <v>-1.048871881222016</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.296045759005901</v>
+        <v>-0.2725415481018877</v>
       </c>
       <c r="C77" t="n">
-        <v>2.26490212951773</v>
+        <v>1.808914065571889</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9110398853829589</v>
+        <v>-0.3374650082105923</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5464528244353078</v>
+        <v>0.8499643719626068</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-29.768395822492</v>
+        <v>-2.614458018616881</v>
       </c>
       <c r="B78" t="n">
-        <v>1.142079278366671</v>
+        <v>2.619100911386175</v>
       </c>
       <c r="C78" t="n">
-        <v>31.58606647336278</v>
+        <v>3.461823507960227</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.125084406379079</v>
+        <v>-1.522266801636305</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.834665522858375</v>
+        <v>-0.9441995990932135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-4.064530078677817</v>
+        <v>-6.003029606912444</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.892527861207478</v>
+        <v>5.941708850360314</v>
       </c>
       <c r="C79" t="n">
-        <v>4.359595092554533</v>
+        <v>9.930203953545018</v>
       </c>
       <c r="D79" t="n">
-        <v>3.486789912185281</v>
+        <v>0.1175376828391705</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8893270648545194</v>
+        <v>-8.986420879832059</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-9.234130348700974</v>
+        <v>-1.522817508106403</v>
       </c>
       <c r="B80" t="n">
-        <v>17.67217957200984</v>
+        <v>2.048478574617123</v>
       </c>
       <c r="C80" t="n">
-        <v>18.22940490785437</v>
+        <v>2.648860343675413</v>
       </c>
       <c r="D80" t="n">
-        <v>-12.1938541406525</v>
+        <v>0.03828390327348922</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.47359999051075</v>
+        <v>-2.212805313459623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5.909717256642944</v>
+        <v>-2.468713973959316</v>
       </c>
       <c r="B81" t="n">
-        <v>-3.874732713194428</v>
+        <v>2.230374465404191</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.0410774939034</v>
+        <v>3.792517505860121</v>
       </c>
       <c r="D81" t="n">
-        <v>6.432807982532306</v>
+        <v>-1.000793541708251</v>
       </c>
       <c r="E81" t="n">
-        <v>5.573284967922579</v>
+        <v>-1.553384455596747</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-5.119158825159529</v>
+        <v>-0.3727361172796875</v>
       </c>
       <c r="B82" t="n">
-        <v>3.910179806427079</v>
+        <v>1.17585216021853</v>
       </c>
       <c r="C82" t="n">
-        <v>10.38943368314095</v>
+        <v>3.203657579197741</v>
       </c>
       <c r="D82" t="n">
-        <v>-3.625442558975751</v>
+        <v>1.147499685099453</v>
       </c>
       <c r="E82" t="n">
-        <v>-4.555012105432745</v>
+        <v>-4.154273307236036</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.524153830470231</v>
+        <v>-1.8052980186223</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.94691485563937</v>
+        <v>-1.807470157011827</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.563539137302728</v>
+        <v>3.164815213006227</v>
       </c>
       <c r="D83" t="n">
-        <v>4.608379070920956</v>
+        <v>0.07288977914639774</v>
       </c>
       <c r="E83" t="n">
-        <v>3.37792109155091</v>
+        <v>1.375063183481503</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.8396172085106373</v>
+        <v>-0.9025467852570561</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9587528975997656</v>
+        <v>0.4848195698118764</v>
       </c>
       <c r="C84" t="n">
-        <v>1.117163279845271</v>
+        <v>0.5646105623489193</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.05973626573706096</v>
+        <v>-1.427685362934588</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1765627031973376</v>
+        <v>2.280802016030847</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.100267243835065</v>
+        <v>-10.01422675366438</v>
       </c>
       <c r="B85" t="n">
-        <v>4.245538506897383</v>
+        <v>-1.493569521343291</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.725995065647539</v>
+        <v>8.044662218554441</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3296284152643033</v>
+        <v>1.127372642640798</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.949439100349208</v>
+        <v>3.335761413812433</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.079664308326176</v>
+        <v>-0.7578973038158269</v>
       </c>
       <c r="B86" t="n">
-        <v>8.605617301936825</v>
+        <v>-1.116026985564775</v>
       </c>
       <c r="C86" t="n">
-        <v>3.318351316852221</v>
+        <v>-4.206271553119938</v>
       </c>
       <c r="D86" t="n">
-        <v>-3.738512915363432</v>
+        <v>3.604292988245146</v>
       </c>
       <c r="E86" t="n">
-        <v>-9.265120011751787</v>
+        <v>3.475902854255393</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.287920160419318</v>
+        <v>-0.4449295617130665</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.3115555877063948</v>
+        <v>2.318058418544803</v>
       </c>
       <c r="C87" t="n">
-        <v>1.598343356679427</v>
+        <v>0.5073475783452844</v>
       </c>
       <c r="D87" t="n">
-        <v>1.125356109185343</v>
+        <v>-3.413435970877835</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.1242237177390567</v>
+        <v>2.032959535700817</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-2.019542044215771</v>
+        <v>-1.891543192409755</v>
       </c>
       <c r="B88" t="n">
-        <v>3.733280333237595</v>
+        <v>4.661823507666126</v>
       </c>
       <c r="C88" t="n">
-        <v>1.907499627353668</v>
+        <v>3.423016454478168</v>
       </c>
       <c r="D88" t="n">
-        <v>-2.187070013868574</v>
+        <v>-2.71479818932981</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.4341679025069192</v>
+        <v>-2.478498580404733</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1.875465345495842</v>
+        <v>-1.435181317896759</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4732646877911916</v>
+        <v>1.493337452084781</v>
       </c>
       <c r="C89" t="n">
-        <v>3.164615081421676</v>
+        <v>3.480531302438699</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.046987358709468</v>
+        <v>0.2725703116611143</v>
       </c>
       <c r="E89" t="n">
-        <v>0.284572934992442</v>
+        <v>-2.811257748287835</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.547510401771753</v>
+        <v>8.59938405259496</v>
       </c>
       <c r="B90" t="n">
-        <v>3.01259530939845</v>
+        <v>-2.631020027128181</v>
       </c>
       <c r="C90" t="n">
-        <v>2.638975967614032</v>
+        <v>-10.5851262718805</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8865161227790315</v>
+        <v>3.764863697121197</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.99057699801976</v>
+        <v>1.851898549292525</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.7658067414479436</v>
+        <v>-10.44390553698345</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4936259120215741</v>
+        <v>7.834641582461625</v>
       </c>
       <c r="C91" t="n">
-        <v>1.832125516077666</v>
+        <v>-5.771322567598371</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.07938239956700287</v>
+        <v>12.08820696641921</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.4805622870842949</v>
+        <v>-2.707620444299013</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.6921513263074485</v>
+        <v>-3.846260161974498</v>
       </c>
       <c r="B92" t="n">
-        <v>2.288451559248255</v>
+        <v>0.9946569571096016</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6399609619405096</v>
+        <v>5.619302226216787</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.8984168954974158</v>
+        <v>-2.218035968329976</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.3378442993838995</v>
+        <v>0.4503369469780836</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-4.532400185895555</v>
+        <v>-7.453773401767871</v>
       </c>
       <c r="B93" t="n">
-        <v>9.035561965891345</v>
+        <v>-4.826736185486313</v>
       </c>
       <c r="C93" t="n">
-        <v>15.67254614646974</v>
+        <v>6.384751191769021</v>
       </c>
       <c r="D93" t="n">
-        <v>-13.50366584777222</v>
+        <v>0.7217063155812705</v>
       </c>
       <c r="E93" t="n">
-        <v>-5.672042078693309</v>
+        <v>6.174052079903892</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.54280863777969</v>
+        <v>-7.945261960361022</v>
       </c>
       <c r="B94" t="n">
-        <v>-2.498465201446306</v>
+        <v>-4.293792118825719</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.963205666679975</v>
+        <v>9.969465958044999</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.9962815180699259</v>
+        <v>0.6183614770178412</v>
       </c>
       <c r="E94" t="n">
-        <v>3.915143748416516</v>
+        <v>2.651226644123901</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-7.523769028576824</v>
+        <v>-1.571019579618298</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9859290559868831</v>
+        <v>0.1839972093957546</v>
       </c>
       <c r="C95" t="n">
-        <v>8.75634798262227</v>
+        <v>2.033085234877877</v>
       </c>
       <c r="D95" t="n">
-        <v>1.235568043108829</v>
+        <v>1.197705584206219</v>
       </c>
       <c r="E95" t="n">
-        <v>-2.454076053141159</v>
+        <v>-0.8437684488615522</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.3340686816098653</v>
+        <v>15.52042999135056</v>
       </c>
       <c r="B96" t="n">
-        <v>2.531852260649026</v>
+        <v>-5.238343652378696</v>
       </c>
       <c r="C96" t="n">
-        <v>1.325890814699149</v>
+        <v>-16.96889798138838</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.9183985345795309</v>
+        <v>2.667871045429246</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.605275859158775</v>
+        <v>5.018940596987273</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.7701636877094434</v>
+        <v>6.09278009983782</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.6685992477809137</v>
+        <v>-1.402132830673752</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3644040476626731</v>
+        <v>-9.173121336167807</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8242721198213119</v>
+        <v>2.904340517200267</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.2902406074125143</v>
+        <v>2.57813354980347</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1.365395315547238</v>
+        <v>-5.463658546725625</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7187951349346655</v>
+        <v>-1.882946067349423</v>
       </c>
       <c r="C98" t="n">
-        <v>1.546262809557594</v>
+        <v>7.154148807557096</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1677917904976296</v>
+        <v>0.1590180772782561</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.06745441944265258</v>
+        <v>1.033437729239695</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-3.198724791892914</v>
+        <v>-2.405142338079667</v>
       </c>
       <c r="B99" t="n">
-        <v>1.142322154943863</v>
+        <v>-0.08163912182317012</v>
       </c>
       <c r="C99" t="n">
-        <v>5.040532090885638</v>
+        <v>3.105438592720079</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.6809537575339589</v>
+        <v>1.845849857214384</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.303175696402626</v>
+        <v>-1.464506990031626</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-3.893708845230682</v>
+        <v>23.68794465857923</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.4494016047402522</v>
+        <v>-24.38688638960789</v>
       </c>
       <c r="C100" t="n">
-        <v>4.437104776104706</v>
+        <v>-26.46795844123256</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3483300879491918</v>
+        <v>16.32005556797444</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5576755859170359</v>
+        <v>11.84684460428677</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.12426043383345</v>
+        <v>-0.0799359919226711</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.144291829439426</v>
+        <v>1.866730352321678</v>
       </c>
       <c r="C101" t="n">
-        <v>0.442592896623382</v>
+        <v>2.452164136663363</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.697775389036233</v>
+        <v>-1.230207293510139</v>
       </c>
       <c r="E101" t="n">
-        <v>2.27521388801883</v>
+        <v>-2.008751203552229</v>
       </c>
     </row>
   </sheetData>
@@ -2188,502 +2189,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.512580857399026</v>
+        <v>0.3310633022512345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3966845125766175</v>
+        <v>-0.2890943488383257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1980486859347955</v>
+        <v>0.2611851586995932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5564721218486355</v>
+        <v>1.271611821397387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.535313470860073</v>
+        <v>-1.149005853417274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.085641219331847</v>
+        <v>0.9250743956071551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.719459940306383</v>
+        <v>-2.622969335236589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.149356817239537</v>
+        <v>1.203060382178477</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.70779575950953</v>
+        <v>-0.3219375128065925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9076557130366977</v>
+        <v>-15.80050152710761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9024121621809272</v>
+        <v>0.3045638983804185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4472740174961078</v>
+        <v>0.8418532409609775</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2183160805397939</v>
+        <v>0.4624915977409165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3413266743052959</v>
+        <v>0.5112870870565633</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.378220883787018</v>
+        <v>6.128490473168495</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5827503133197967</v>
+        <v>54.91019447163908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.370348397778987</v>
+        <v>0.3728771831247039</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.759393215311215</v>
+        <v>0.4137429264054779</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3989312085814435</v>
+        <v>0.2429276197353044</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5775001268805536</v>
+        <v>0.3123645848470277</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.942594453405469</v>
+        <v>0.7489432527266502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.4078281326303581</v>
+        <v>0.2325277814074304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1.417335301164958</v>
+        <v>1.01005820013214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5799600328404555</v>
+        <v>0.4674748312641965</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2106395293902669</v>
+        <v>0.3107648550203566</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.403666709495963</v>
+        <v>-4.584347931869855</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.036922704449087</v>
+        <v>0.3403885501517402</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2018700427137428</v>
+        <v>-1.534898453567403</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.084430910419958</v>
+        <v>0.4457614730764346</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3896739733905247</v>
+        <v>0.2841305368240774</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9932440708522494</v>
+        <v>0.4226469920955473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.580193781019504</v>
+        <v>-1.371886396569403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.6086854848626402</v>
+        <v>1.869176247495735</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2872119245488493</v>
+        <v>0.3463021120544068</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6082662082477495</v>
+        <v>0.8461458654998284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2738950938746229</v>
+        <v>-1.971545329904274</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9190803271660712</v>
+        <v>0.4510055454988592</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.9191979420913304</v>
+        <v>1.1614095438361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5345210322907926</v>
+        <v>0.4093703648304118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7002368237402214</v>
+        <v>0.2726686208172222</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.273804955150628</v>
+        <v>0.1913314879489632</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6046815946308625</v>
+        <v>0.1905093970273596</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4360862395270185</v>
+        <v>-1.32679148607257</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4118352070845988</v>
+        <v>0.8078727313641693</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.962049381731527</v>
+        <v>0.2623288682629038</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.5243788228000824</v>
+        <v>1.866681724238784</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4968254435967364</v>
+        <v>0.3744979878357489</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3181716400663921</v>
+        <v>0.6312001823524201</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4171117472963191</v>
+        <v>0.2837405417215326</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.3279064066773035</v>
+        <v>0.2594433168450399</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2533674783077423</v>
+        <v>0.3648584876812954</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.151807140728123</v>
+        <v>1.303960230537042</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.5632179677544173</v>
+        <v>0.9326605961812831</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.00649664837841</v>
+        <v>1.57492925890291</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4355860409478164</v>
+        <v>-0.4465058685564799</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.5108342684382127</v>
+        <v>2.276415840273043</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.382378734837175</v>
+        <v>0.6761402257122037</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4799286874931478</v>
+        <v>0.7908431376298791</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5212712260515173</v>
+        <v>0.5993000545611306</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9890423163085261</v>
+        <v>0.8793149246336838</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-30.01779054490004</v>
+        <v>0.3547631516254604</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.3029559924462443</v>
+        <v>0.2384171944594387</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5625317074985572</v>
+        <v>0.43625452109998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.6485925749224062</v>
+        <v>0.6661215458460915</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-3.264641570903118</v>
+        <v>0.2654667567187192</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2060681405927972</v>
+        <v>0.5296478260462522</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.662257418796564</v>
+        <v>0.6345777149840516</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.571282895337345</v>
+        <v>0.9861086249612251</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3390721268738523</v>
+        <v>0.4105940760228029</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.5186093729020874</v>
+        <v>0.2311639487969638</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2970577368520415</v>
+        <v>-1.027586346359859</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.6187138600335891</v>
+        <v>0.2920618915745017</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.892579902473057</v>
+        <v>1.014241504587401</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.276928286529791</v>
+        <v>1.182250425186115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8902807702845166</v>
+        <v>0.3420971164018465</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1812256673655099</v>
+        <v>0.5074582594379741</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.837074908156382</v>
+        <v>0.7511739309467852</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7307446001934159</v>
+        <v>0.6451856197940361</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.077888312651189</v>
+        <v>0.4898418915049935</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1.168556306475081</v>
+        <v>0.5800253987986059</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.491416537124176</v>
+        <v>0.2517192798258621</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.8776809770612459</v>
+        <v>0.3585432511117074</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1960732956750672</v>
+        <v>0.4138929186373558</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.5273720811581938</v>
+        <v>1.335566221734591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.5245805707669625</v>
+        <v>-0.9919404674714747</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.2384472756827476</v>
+        <v>0.65988045869458</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5771842063826578</v>
+        <v>0.8364349351466466</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.7233365872706484</v>
+        <v>0.4498071327406589</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.2312849132465213</v>
+        <v>-1.060159909957122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.3818049232944575</v>
+        <v>-3.199590667988115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.2889009947816058</v>
+        <v>1.089122247284705</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.89516644968226</v>
+        <v>1.295956415058034</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.4192491243348158</v>
+        <v>1.360696638839406</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4712410527159381</v>
+        <v>0.3080617702821956</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.540590817695867</v>
+        <v>-1.707181179991782</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.2828566506220305</v>
+        <v>-0.9344444524020348</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.252938599511646</v>
+        <v>1.279227376889716</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.3745047069816489</v>
+        <v>0.5268345701167582</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.500586996636885</v>
+        <v>-1.934633278519108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4811918844866888</v>
+        <v>0.4197188325126976</v>
       </c>
     </row>
   </sheetData>
@@ -2712,502 +2713,1028 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.193698226103197</v>
+        <v>0.06324930261144915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.06248462984467091</v>
+        <v>0.07504472289094997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04424222003731785</v>
+        <v>0.09381329622325242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.09392148972180767</v>
+        <v>0.2759720917622201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1102225765017402</v>
+        <v>0.4960542262465533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5274754634654991</v>
+        <v>0.7305938551515042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.15547623871309</v>
+        <v>1.112654430011104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.775408654487502</v>
+        <v>0.5752470051513285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.326608414632229</v>
+        <v>0.08727155232746146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3022350956583335</v>
+        <v>297.2565420822335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3461983663517695</v>
+        <v>0.07016007834013403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.04149795052576756</v>
+        <v>0.1168380262122418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.04700500782414115</v>
+        <v>0.0941450072061735</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.06585952058682365</v>
+        <v>0.4213987202573269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.05155035327201557</v>
+        <v>11.14524575636207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1032259972603499</v>
+        <v>986.8501539683274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.282266831360363</v>
+        <v>0.170036636961687</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.174231929723843</v>
+        <v>0.1294339655758958</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1672998703296206</v>
+        <v>0.05744272771730174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.09389707410942018</v>
+        <v>0.08631975380100755</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1814128518915518</v>
+        <v>0.2864648851815281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3514925986992922</v>
+        <v>0.04536911002229344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.929603544549045</v>
+        <v>0.4101291822940453</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.09210256412352096</v>
+        <v>0.04500234492821052</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.05124464244458116</v>
+        <v>0.06084186829147775</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.183101201861657</v>
+        <v>17.95110932003078</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5587793680789513</v>
+        <v>0.06081456829947474</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.04895364467220998</v>
+        <v>1.216091024021797</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4651240176927188</v>
+        <v>0.08887574041194578</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.05393211466134486</v>
+        <v>0.04827686909498116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4806224118623783</v>
+        <v>0.1100541194026888</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1168237908913645</v>
+        <v>0.7813828081681568</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3817312939600992</v>
+        <v>1.243606460499929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1051681711852415</v>
+        <v>0.10246199050302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1447760575148742</v>
+        <v>0.4666169081832671</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.05940175851712901</v>
+        <v>2.039596628728389</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6428234522234723</v>
+        <v>0.03689359315875793</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3600556174704446</v>
+        <v>0.2236708298347574</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1218353000880937</v>
+        <v>0.05146825473119756</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1980919659686212</v>
+        <v>0.06914414596454659</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5791332075424214</v>
+        <v>0.03992775045444626</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2206256533694938</v>
+        <v>0.03661116375077657</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.04526021944596419</v>
+        <v>0.4212062494693458</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1030220668013969</v>
+        <v>0.6386967518333386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.446176465349034</v>
+        <v>0.04541516992187597</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1731266490349188</v>
+        <v>1.267427443050009</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.08469769443596732</v>
+        <v>0.06841583810108615</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.03415311808446954</v>
+        <v>0.1319878670014942</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.09736256295369772</v>
+        <v>0.08584841746893455</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.3463148536762284</v>
+        <v>0.05431710534381852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.04885498016650004</v>
+        <v>0.1345289183427005</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.3391380041346427</v>
+        <v>0.6066997360163745</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.2520371828164948</v>
+        <v>0.6949507854359949</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.2409284521682037</v>
+        <v>1.266373747075878</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.12481174544801</v>
+        <v>0.1981482952156245</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1284178842584248</v>
+        <v>1.864721582848382</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.5178463738235165</v>
+        <v>0.160689888259656</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.07291237019205382</v>
+        <v>0.4200957656283086</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.07606315179879831</v>
+        <v>1.836241855874042</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2934810191916687</v>
+        <v>0.3302470069225658</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>325.5184544945378</v>
+        <v>0.03807700797623767</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.06025723931447173</v>
+        <v>0.03210954945398768</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.075200511156142</v>
+        <v>0.06299999443691816</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.102765915824819</v>
+        <v>0.09251650933057055</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11.36183554165007</v>
+        <v>0.06768412263780313</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0391395101849344</v>
+        <v>0.1897762487908904</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1110279708817937</v>
+        <v>0.07577632572684312</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.219137716204107</v>
+        <v>0.3837684889546887</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.04071953713715462</v>
+        <v>0.1290972749677972</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.08753885435452961</v>
+        <v>0.04379124592298678</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.05592237388499902</v>
+        <v>0.8268278708474107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1655823647060571</v>
+        <v>0.06595333405679647</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.656203343217154</v>
+        <v>0.3094028228485726</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.5444600588974858</v>
+        <v>0.2333852336755261</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5859760567618629</v>
+        <v>0.0379379538519526</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.08655403427428636</v>
+        <v>0.07233820391368717</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.154709950335083</v>
+        <v>0.1090120328960969</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2322790170317953</v>
+        <v>0.7614104595346216</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.03040122320707</v>
+        <v>0.06371897912225664</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9303999908408903</v>
+        <v>0.07466661051835322</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9225973490001552</v>
+        <v>0.1898141103218071</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.285750599679254</v>
+        <v>0.1045054333462749</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.03386268700064075</v>
+        <v>0.1275546024594614</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6194801289119872</v>
+        <v>0.639057944298343</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6861164005540639</v>
+        <v>0.3147362432918103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.03816307867965052</v>
+        <v>0.2713603210898056</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.2177505630555739</v>
+        <v>0.1471809586683213</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.08177456222998225</v>
+        <v>0.1581445774518716</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.06817170167195444</v>
+        <v>0.8154055733217753</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.05377203126392995</v>
+        <v>4.605035421413716</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.06729319722402613</v>
+        <v>0.3237928099840942</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.014329586088912</v>
+        <v>0.5653040257338767</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.167114772814678</v>
+        <v>0.7853239046195426</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.2973078647179712</v>
+        <v>0.05786015602328466</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.07632474395396012</v>
+        <v>1.187822419183887</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0270804287105261</v>
+        <v>0.5261184343465046</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.0613788037851822</v>
+        <v>0.505974536383562</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1807128383646638</v>
+        <v>0.124679616757467</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.1325407211072962</v>
+        <v>6.820091278177138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.2530325740252306</v>
+        <v>0.1212682300581565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tangent Sharpe Ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.755752740280289</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.63254915244744</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.102836434334983</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7.754459018597151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-5.349534089266779</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4.665730620200438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-13.48804559247637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.725572581217414</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-2.111258764347164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-70.94636823039703</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.544680205713884</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5.049122713637262</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.789918810838391</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.112542247107817</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34.92303788828121</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>267.9818833163071</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.730980782119282</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2.260653422214979</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.087575458054329</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.505548821417081</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.626434670474178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.082979604522396</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5.198301101884792</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.37947997942637</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.581390440724393</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-22.17459616764988</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.683032999004124</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-7.952405676160224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.48139422086579</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.642123752074717</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.142598121082664</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-7.283809731743275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>9.105844887181743</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.369116882393459</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5.260841063351481</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-9.208845896583622</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2.891777632434796</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6.597730740862175</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2.046759654909442</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.322100297327565</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.7885225490113253</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.286370653410825</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-6.072899127488275</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4.326461181253254</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.412133805345558</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>12.8572721837688</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2.117356701616733</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3.149452842571923</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.200852800232406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.271890256195569</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.916537765330056</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6.294358677174477</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4.418336215929591</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>9.299567228144882</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-2.957695365040643</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10.96463755130445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3.084529105318041</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4.324439392675898</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2.697117475607666</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4.087235453615947</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.834996445106001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.153193935535617</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2.275833654844269</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.401974990148781</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.521008834392342</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2.994546961374807</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.696131194816972</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5.758573999833239</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2.818552103237526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.237487882695719</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-4.684419201088193</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.535841578985255</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5.01491560832143</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5.787792641923201</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.903438001389878</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2.331993084987957</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4.384428742030871</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.836788817992717</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2.674161664096026</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.201819915415969</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.401352624040553</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.956869596238085</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2.172855868823807</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7.95560162403507</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-4.782695363451811</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3.635159926667829</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4.676434527241</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.15118419586869</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-5.384820468965158</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-15.3498186220926</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5.691776530498314</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6.527400192311015</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7.592676990729797</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.734857599523949</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-8.892917837560677</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-4.79939187028971</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7.002322333133202</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2.998591312039169</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-9.271766188807858</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.940919946966452</v>
       </c>
     </row>
   </sheetData>
